--- a/output/schorlarship.xlsx
+++ b/output/schorlarship.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,57 +436,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>https://images8.content-hci.com/commimg/myhotcourses/institution/myhc_293345.jpg</t>
+          <t>UCL Global Undergraduate Scholarships</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxford Brookes University, Oxford</t>
+          <t>University College LondonBachelors Degree</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Accounting and Finance MScOn Campus</t>
+          <t>Deadline:24 Apr 2023 (annual)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Overview Our MSc Accounting and Finance balances technical accounting and finance knowledge with practical skills. You are taught in small interactive groups by experts from the professions as well as leading researchers in the field. Throughout this ...Read more</t>
+          <t>Sept 2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/course/details.html?institutionid=4002&amp;courseid=55805638</t>
+          <t>University College London, UK</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Postgraduate</t>
+          <t>Bachelor’s Degree Programme in any subject offered at the University</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>18 September 2023</t>
+          <t>Unnamed: 7</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>12 months</t>
+          <t>International students from low income background</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>There are 10 awards of full tuition fees &amp; maintenance and 20 awards of full tuition fees. The scholarship is tenable for the normal duration of the programme</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>16,800 Per year</t>
+          <t>Candidates can be from any country outside the UK but must fulfill all of the following criteria:*Guidance on how UCL defines household income can be found on the University’sessential informationpage.</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>You need to have submitted an admission application to UCL in order to apply for the scholarship.Aplications must be submitted through an online application form before 5pm BST, Friday24 April 2023.</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ucl.ac.uk/scholarships/ucl-global-undergraduate-scholarship</t>
         </is>
       </c>
     </row>
@@ -496,55 +506,59 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://images8.content-hci.com/commimg/myhotcourses/institution/myhc_293345.jpg</t>
+          <t>UEA International Development Full Fees Scholarships</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Oxford Brookes University, Oxford</t>
+          <t>University of East AngliaMasters Degree</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Advanced Computer Science MSc or PGDip or PGCertOn Campus</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+          <t>Deadline:30 April 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Overview Our Advanced Computer Science course has been designed in response to the growing need from industry for graduates that are equipped with the skills to manage and solve complex projects. This course is for recent graduates and those with ...Read more</t>
+          <t>September 2023</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>/course/details.html?institutionid=4002&amp;courseid=52387826</t>
+          <t>School of International Development, University of East Anglia in UK</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Postgraduate</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>18 September 2023</t>
-        </is>
-      </c>
+          <t>Any full time Masters Degree courses offered bythe School of International Development</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1 year</t>
+          <t>International and EU students</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>16,600 Per year</t>
+          <t>The scholarship covers full tuition fees worth £19,800.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>You must have been offered a place to study an eligible Masters course under the School of International Development to be considered for the scholarship.Applications are done online through the scholarships application form found at the official website. The dealine for applications is30 April 2023.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.uea.ac.uk/study/fees-and-funding/scholarships-finder/scholarships-a-z/international-development-full-fees-scholarship</t>
         </is>
       </c>
     </row>
@@ -554,55 +568,63 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://images1.content-hci.com/study-cont/studyuk/img/icon/1px_img.gif</t>
+          <t>Nottingham Developing Solutions Scholarships</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>University of Brighton International College, Brighton</t>
+          <t>University of NottinghamMasters (MS) Degree</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Foundation Certificate for Art, Design and Media (2 Terms)On Campus</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
+          <t>Deadline:17 May 2023 (annual)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Foundation Certificate for Art, Design and Media If you’ve finished high school but don’t meet the entry requirements for university, a Foundation Certificate can help you gain entry to an undergraduate degree. For progression to the 1st year of a ...Read more</t>
+          <t>September 2023</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>/course/details.html?institutionid=446252&amp;courseid=58131452</t>
+          <t>University of Nottingham in United Kingdom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>January 2023, September 2023, January 2024</t>
-        </is>
-      </c>
+          <t>Full-time Masters Degree Programmes (including MRes) at Nottingham for October 2023 in any subject area within the following faculties: Faculty of Engineering, Faculty of Medicine &amp; Health Sciences, Faculty of Science and Faculty of Social Science</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>6 months</t>
+          <t>Students domiciled in the following countries:</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>50-100% of the tuition fees</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>16,320 Overall cost</t>
+          <t>To apply for this scholarship, you must:• be domiciled in Africa, India or one of the selected Commonwealth countries (listed above)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Applicants must first have applied for and have received an offer to study  a full-time masters (including MRes) at the University of Nottingham before they can apply for the scholarship.You can apply through the scholarships section of the University’s application system,NottinghamHub. The deadline is Friday,17May 2023.</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.nottingham.ac.uk/studywithus/international-applicants/scholarships-fees-and-finance/scholarships/masters-scholarships/dev-sol-masters.aspx</t>
         </is>
       </c>
     </row>
@@ -612,57 +634,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://images1.content-hci.com/study-cont/studyuk/img/icon/1px_img.gif</t>
+          <t>Top 15+ UK Scholarships for International Students</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>University of Brighton International College, Brighton</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Foundation Certificate for Art, Design and Media (2.5 Terms)On Campus</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Foundation Certificate for Art, Design and Media If you’ve finished high school but don’t meet the entry requirements for university, a Foundation Certificate can help you gain entry to an undergraduate degree. For progression to the 1st year of a ...Read more</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>/course/details.html?institutionid=446252&amp;courseid=58131456</t>
-        </is>
-      </c>
+          <t>Do you want to study in the UK for free? The British Government and UK Universities provide a large number of scholarships for international students who wants to study in United Kingdom. To help you, scholars4dev.com lists the top 15+UK Scholarshipsfor international students.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Undergraduate</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>September 2023, January 2024</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>7.5 months</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Full Time</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>18,180 Overall cost</t>
-        </is>
-      </c>
+          <t>Warwick Chancellor’s International ScholarshipsThe Warwick Graduate School awards up to 42 Chancellor’s International Scholarships to the most outstanding PhD applicants yearly. The scholarships are open to international and EU students in any discipline offered at Warwick.  The scholarships include the full payment of overseas tuition fee and a maintenance stipend.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -670,55 +664,67 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://images1.content-hci.com/study-cont/studyuk/img/icon/1px_img.gif</t>
+          <t>University of Sussex Chancellor’s International Scholarships</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UCL (University College London), London</t>
+          <t>University of SussexMasters Degree</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Advanced Architectural Research PG CertOn Campus</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+          <t>Deadline:26 April 2023 (annual)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>In architecture, research and practice go hand in hand, with ground-breaking design inspiring great research and vice versa. This programme allows students to develop their own research and/or design to an advanced level, ready to push new boundaries and ...Read more</t>
+          <t>September 2023</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>/course/details.html?institutionid=4094&amp;courseid=57683900</t>
+          <t>University of Sussex, United Kingdom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Postgraduate</t>
+          <t>Taught full time Masters programmes offered at University of Sussex SchoolsEXCEPTfor the following:</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25 September 2023</t>
+          <t>Up to 100</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3 months</t>
+          <t>International and EU students</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>£5,000</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9,800 Overall cost</t>
+          <t>To be eligible for this scholarship you must:• Be classified as ‘overseas’ for fee purposes</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Scholarship applications open 12 April 2023.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.sussex.ac.uk/study/fees-funding/masters-scholarships/view/1475-Chancellor-s-International-Scholarships</t>
         </is>
       </c>
     </row>
@@ -728,55 +734,7787 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://images1.content-hci.com/study-cont/studyuk/img/icon/1px_img.gif</t>
+          <t>Cambridge International Scholarships</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UCL (University College London), London</t>
+          <t>University of CambridgePhD Degree</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Advanced Audiology MScOn Campus</t>
-        </is>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+          <t>Deadline:1 Dec 2022/5 Jan 2023 (annual)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Advanced Audiology is designed for practising audiologists looking to enhance their clinical skills. Graduates are eligible to apply for senior clinical roles in the NHS or private sector. A variety of specialist modules can be selected to suit students ...Read more</t>
+          <t>October 2023</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>/course/details.html?institutionid=4094&amp;courseid=57682964</t>
+          <t>University of Cambridge in United Kingdom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Postgraduate</t>
+          <t>Eligible research programmes leading to a PhD offered at the University</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25 September 2023</t>
+          <t>Not specified.</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1 year</t>
+          <t>The Cambridge International Scholarships International are for students who will be undertaking research leading to a PhD Degree at the University of Cambridge in 2022 and are required to pay University fees at the international rate (the Vice Chancellors Scholarships are for UK and Irish nationals who are required to pay fees at the domestic rate).</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>The scholarships pay the University Composition Fee and a maintenance allowance sufficient for a single person.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>29,400 Per year</t>
+          <t>A University Committee draws up one ranked list of all PhD candidates across all disciplines.  The only factors taken into consideration in agreeing this list are academic qualifications, references and research potential.The financial situation of applicants does not affect the selection of scholarship winners.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.cambridgetrust.org/scholarships/v-c-awards-and-cambridge-international-scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Commonwealth Shared Scholarship Scheme at UK Universities</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DFID/UK UniversitiesMasters Degree</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Deadline:13 December 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sept 2023</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Participating UK Universities</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>See thelist of eligible courses for 2023.These scholarships are offered under six themes:</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Not specified.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>The scholarships are open to nationals of least developed and lower middle income Commonwealth countries:</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Each Scholarship provides approved tuition and examination fees, approved airfare from your home country to the UK and return at the end of your award, stipend at the rate of £1,236 per month, or £1,516 per month for those studying at universities in the London metropolitan area (rates quoted at current levels), warm clothing allowance, thesis grant, study travel grant, and excess baggage allowance, etc.</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>To apply for a Commonwealth Shared Scholarship, candidates must:• Be a citizen of or have been granted refugee status by an eligible Commonwealth country, or be a British Protected Person• Be permanently resident in a developing Commonwealth country• Be available to start your academic studies in the UK by the start of the UK academic year in September 2023• By September 2023, hold a first degree of at least upper second class (2:1) standard, or a lower second class degree and a relevant postgraduate qualification (usually a Master’s degree)• Not have studied or worked for one (academic) year or more in a developed country• Be unable to afford to study in the UK without this scholarship• Have provided all supporting documentation in the required format</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://cscuk.fcdo.gov.uk/scholarships/commonwealth-shared-scholarships-applications/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Commonwealth Master’s Scholarships for Developing Commonwealth Countries</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Eligible Masters Degree Programme at a UK University</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Deadline:18 Oct 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sept 2023</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>UK Universties</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Eligible Masters Degree Programme at a UK University</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Citizen of or have been granted refugee status by an eligible Commonwealth country,</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Each scholarship provides airfare to and from United Kingdom, tuition and examination fees, stipend, thesis grant (if applicable), warm clothing allowance, among others.</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>To apply for these scholarships, you must:• Be a citizen of or have been granted refugee status by an eligible Commonwealth country, or be a British Protected Person</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://cscuk.fcdo.gov.uk/scholarships/commonwealth-masters-scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clarendon Fund Scholarships at University of Oxford</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Oxford University PressMasters/PhD Degrees</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Deadline:6 Jan/20 Jan 2023 (annual)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>October 2023</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>University of Oxford in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>All degree-bearing courses at graduate level in any subject are eligible. This encompasses all full-time and part-time master’s and all DPhil courses. A list of all the graduate courses offered by the University of Oxford can be found on theCoursespage.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>All applicants from any country</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>All Clarendon Scholarships cover tuition and college fees in full.</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>If you apply for a full- or part-time master’s or DPhil course at Oxford by the December or January deadline for your course, you will automatically be considered for a Clarendon Scholarship.You do not need to submit any additional documents specifically for the Clarendon Scholarships –there is no separate scholarship application form.   You do, however, need to apply before theDecember orJanuary deadline (6 or 20 January 2023) for your courseif you wish to be considered for the scholarship.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ox.ac.uk/clarendon</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Reach Oxford Scholarships for Developing Country Students</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>University of OxfordUndergraduate Degree</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Deadline:15 Oct 2022/8 Feb 2023 (annual)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>October 2023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Oxford University, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Undergraduate programs in all subjects in thecourse listing, except medicine</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Applicants must be nationals of countries who receive official development assistance from the Development Assistance Committee (DAC) of the Organisation for Economic Co-operation and Development (OECD).  See the official website for the complete list of eligible countries.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Tuition fees and college fees, a grant for living expenses and one return air fare per year. The scholarship duration is 3 or 4 years depending on course length.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>This scheme is only suitable for candidates who have received an offer and who are of the highest academic ability. Financial need and social commitment are also major criteria for selection. Applicants should be intending to return to their country of ordinary residence following their studies. Priority will be given to students who have not studied at undergraduate level before.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Applications for admissions are currently closed.</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ox.ac.uk/admissions/undergraduate/fees-and-funding/oxford-support/reach-oxford-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Oxford-Weidenfeld and Hoffmann Scholarship and Leadership Programme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>University of OxfordMasters Degree</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Deadline:6/20 Jan 2023 (annual)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>University of Oxford, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Application instructions:</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Students from transition and emerging economies throughout Africa, Asia and South America</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>The scholarship will cover 100% of University and college fees and a grant for living costs (of at least  £17,668). Awards are made for the full duration of your fee liability for the agreed course.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>You should be applying to start one of the eligible courses at Oxford.  You must be ordinarily resident in one of the eligible countries (see the official website for the complete list).  You should be intending to return to your country of ordinary residence once your course is completed.Successful applicants must demonstrate an interest in serving the global community through their chosen field of work. You should be able to demonstrate a connection between your subject of study and your longer-term career objectives, explaining how you see your professional work contributing to the improvement of public life in your country of origin or at a wider regional or international level.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>In order to be considered for this scholarship, you must select the Weidenfeld-Hoffman Scholarship and Leadership Programme in the Funding section of the University’s graduate application form and submit your application for graduate study by the relevant December or January deadline for your course(6 January or 20 January 2023). You must also complete a Weidenfeld-Hoffman Scholarships Statement and upload it together with your graduate application form, by the deadline.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Weidenfeld Hoffman Trust Website:http://www.whtrust.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gates Cambridge Scholarships for International Students</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The Gates Cambridge Scholarships are one of the most prestigious international scholarships in the world. Scholarships are awarded to outstanding applicants from countries outside the UK to pursue a full-time postgraduate degree in any subject available at the University of Cambridge.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Deadline:12 Oct/1 Dec 2022/3 Jan 2023 (annual)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>October 2023</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>University of Cambridge, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Application instructions:</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Citizens of any country outside the United Kingdom.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>A Gates Cambridge Scholarship covers the full cost of studying at Cambridge including tuition fees, maintenance allowance (£18,384 for 12 months at the 2022-23 rate), travel costs, visa, etc. It also provides additional, discretionary funding such as academic development funding, family allowance, fieldwork, etc.</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>You can apply for a Gates Cambridge Scholarship if you are:•  a citizen of any country outside the United Kingdom.</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.gatescambridge.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Transform Together Scholarships for International and European Union (non-UK) Students</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sheffield Hallam UniversityBachelors/Masters Degree</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Deadline:31 May/1 Nov 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sheffield, UK</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sept 2022/Jan 2023</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sheffield Hallam University in UK</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>International and European Union (non-UK) students</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>A half fee waiver (50% discount) is available for undergraduate and postgraduate taught courses for the first year of study.</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>To be eligible to apply for one of these scholarships, you must:• be an international fee paying student</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:www.shu.ac.uk/transformtogether</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>British Chevening Scholarships in UK for International Students</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Deadline:1 Nov 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sept/Oct 2023</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Any university in the UK</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>One year full-time taught Masters Degree Programme in any subject. Use thecourse finderto find eligible master’s degrees at every university across the UK.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>The scholarships are targeted to citizens of Chevening-eligible countries.  See the official website for complete list of countries eligible for Chevening scholarships.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>A Chevening Scholarship normally covers university tuition fees, a monthly living allowance, travel costs to and from the UK,  an arrival allowance, an homeward departure allowance, the cost of one visa applications and a travel grant to attend Chevening events in the UK.</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>To be eligible for a Chevening Scholarship you must:•  Be a citizen of a Chevening-eligible country or territory.</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.chevening.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rhodes Global Scholarships</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Oxford University in UK</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Deadline:1 Aug 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Oct 2023</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Oxford University in UK</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Any full-time postgraduate degree at the University of Oxford, with some exceptions.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Students who arenotfrom existing Rhodes constituencies</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>A Rhodes Scholarship covers all University and College fees, a living stipend (£17,310 per annum 2021-22); settling in allowance, health insurance, visa, two economy class flights – to and from the UK – for the beginning and end of studies in Oxford.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>a. Nationality/citizenship: You may only apply to the Global Scholarships if you are not eligible to apply via any existingRhodes constituency. If you have a strong connection to one or more Rhodes constituency but do not meet their eligibility criteria you should also consider inter-jurisdictional consideration rather than the Global Scholarshipb. Age:</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.rhodeshouse.ox.ac.uk/scholarships/applications/global/#apply-now</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Scotland’s Saltire Scholarships</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Masters degree in science, technology, creative industries, healthcare and medical sciences, or renewable and clean energy offered at Scottish Universities. Distance learning courses are eligible.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Deadline:31 May 2022 (Annual)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fall 2022</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Scotland’s higher education institutions</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Masters degree in science, technology, creative industries, healthcare and medical sciences, or renewable and clean energy offered at Scottish Universities. Distance learning courses are eligible.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Up to 50</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Nationals of the following countries: Canada, China (including Hong Kong), India, Japan, Pakistan and USA.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Each award is worth £8000 to be used towards tuition fees for the duration of 1 year of full time study on a postgraduate Masters programme at any of Scotland’s higher education institutions.</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Applicants must:• Have a conditional or unconditional offer of a place at a Scottish university on an eligible course that will be delivered physically in Scotland or via distance online learning or via a combination of both.• Be citizens of Canada, India, Japan, USA, Pakistan or China (Hong Kong citizens are also eligible as it is a Special Administrative Region of China)• Be able to demonstrate that they can meet the costs of living in Scotland and the remaining tuition fees.• Not have previously studied in Scotland.• Not have previously received a Saltire Scholarship.• Meet the language requirements of the course.• Complete an application form and submit it by the closing date of 31 May 2022.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.scotland.org/study/saltire-scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Global Wales Postgraduate Scholarships for International Students</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The scholarships are funded by the Global Wales Programme – a partnership between the Welsh Government, Universities Wales, The British Council and HEFCW.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Deadline:31 May 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Wales</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sept 2022</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Level/Field(s) of study:</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Eligible full-time postgraduate programme at one of the Welsh Universities (see above)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Europe:Austria, Belgium, Bulgaria, Croatia, Cyprus, Czech Republic, Denmark, Estonia, Finland, France, Germany, Greece, Hungary, Ireland, Italy, Latvia, Lithuania, Luxemburg, Malta, Netherlands, Poland, Portugal, Romania, Slovakia, Slovenia, Sweden, Spain</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Each scholarship is worth up to £10,000towards the cost of tuition fees for one year of a postgraduate masters programme. Any additional costs and expenses are the responsibility of the student.</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>To be eligible for the Global Wales Postgraduate scholarships, you must:• Have submitted an application to study an eligible postgraduate programme at one of the Welsh Universities (see above);• Be due to start your postgraduate programme in September 2022;• Be classed as an overseas student for fee paying purposes;•  Be a citizen of one of the eligible countries (see above).</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.studyinwales.ac.uk/global-wales-postgraduate-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>UCL Global Masters Scholarships for International Students</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>University College LondonMasters Degree</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Deadline:12 May 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sept 2022</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>University College London, UK</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Postgraduate Taught Masters Degree Programme in any subject offered at the University</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>International students from low income background</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>The scholarship is worth £15,000 and is tenable for one year only.</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Candidates can be from any country outside the UK but must fulfill all of the following criteria:*Guidance on how UCL defines household income can be found on the University’sessential informationpage.</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ucl.ac.uk/scholarships/ucl-global-masters-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>UWE Millennium Scholarship for International Students</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>University of the West of EnglandMasters Degree</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Deadline:31 May/31 Oct 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sept 2022/Jan 2023</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>University of the West of England, UK</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Eligible Postgraduate Programme offered at the University</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1 for September 2022 / 1 for January 2023</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>International students</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>50% tuition fees for one academic year</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>To be eligible for the scholarship:• Have achieved the equivalent of a British 1st in an undergraduate degree</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.uwe.ac.uk/courses/funding/scholarships-and-bursaries/millennium-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>The Glenmore Medical Postgraduate Scholarship at the University of Edinburgh</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>University of EdinburghMasters Degree</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Deadline:2 June 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>September 2022</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>University of Edinburgh, UK</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>International students from eligible developing countries listed at thislink.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>The scholarship will cover full tuition fees for the duration of the programme of study.</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>The scholarships will be awarded to applicants who are accepted for admission in the 2022-2023 academic year on one of the above listed eligible Human Medical programmes.Applicants should already have been offered a place at the University of Edinburgh and should have firmly accepted that offer or be intending to do so.</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ed.ac.uk/schools-departments/student-funding/postgraduate/international/medicine-vet-medicine/glenmore</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>University of Birmingham Global Masters Scholarships</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>University of BirminghamMasters (MS) Degree</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Deadline:30 June 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sept/Oct 2022</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>University of Birmingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Eligible one year taught Masters degree programmes offered at the University</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>International students from the following countries:</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>£10,000 towards the cost of tuition fees</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>In order to be eligible, candidates must meet the following requirements. Candidates must:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.birmingham.ac.uk/international/students/global-masters-scholarship.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Eira Francis Davies Scholarship at Swansea University</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Swansea UniversityMasters Degree</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Deadline:29 May 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sept 2022</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Swansea University, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Full time taught master’s postgraduate courses within the Faculty of Medicine, Health and Life Science at Swansea University:</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Women fromdeveloping countries as listed by the World Bank</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>The scholarship covers the full tuition.</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Applicants must:• hold a minimum 2:1 Bachelors degree or equivalent qualification.</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.swansea.ac.uk/humanandhealthsciences/eira-francis-davies-scholarship/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Glasgow International Leadership Scholarships</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Glasgow UniversityMasters Degree</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Deadline:Jan-July 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sept 2022</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Glasgow University in UK</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Postgraduate Taught Master Programmes in any discipline offered at the University (see the list at the official website)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>International and EU (non-UK) students (see the list at the official website)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>The scholarship is awarded as a tuition fees discount and is worth £10,000.</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.gla.ac.uk/scholarships/universityofglasgowinternationalleadershipscholarship/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UWE Chancellor’s Scholarships for International Students</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>University of West EnglandMasters Degree</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Deadline:31 May/31 Oct 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sept 2022/Jan 2023</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>University of the West of England Bristol, UK</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Eligible Postgraduate Programme offered at the University</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1 for September 2022/1 for January 2023</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>International students</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>50% tuition fees for one academic year</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>To be eligible for the scholarship:•  Have achieved the equivalent of a British 1st in an undergraduate degree</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.uwe.ac.uk/courses/funding/chancellors-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>International Ambassador Scholarships at University of West London</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>University of West LondonBachelors/Masters Degree</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Deadline:11 July 2023 (annual)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sept 2023</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>University of West London, UK</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Up to 100 scholarships</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Non-EU International Students</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Up to £5,000 tuition fee discount for the first year of study for undergraduates  and up to £2,000 tuition fees for postgraduates</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Applicants must be:The International Ambassador Scholarship will be awarded on a competitive basis to candidates who demonstrate enthusiasm and the ability to be an excellent international student ambassador.</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>To be considered for the scholarship, you must have been offered a place to study on a full-time undergraduate or postgraduate course at the University of West London. The next deadline is11 July 2023for the September 2023 intake.</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.uwl.ac.uk/courses/undergraduate-study/fees-and-funding/bursaries-and-scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IOE Centenary Masters Scholarships</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Institute of Education, University College London in UK</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Deadline:2 May 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sept/Oct 2022</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Institute of Education, University College London in UK</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Full-time Taught Master’s Degree programmes offered at UCL Institute of Education</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Students fromlow or lower-middle income countries</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Scholarships will cover full tuition fees and accommodation at International Students House for one academic year. Please note that these scholarshipsdo notcover subsistence in London, travel, or any other costs.</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Candidates should:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ucl.ac.uk/ioe/about-ioe/global-reach/scholarships-and-funding</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UAL/ISH International Postgraduate Scholarships</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>University of the Arts LondonMasters Degree</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Deadline:13 June/2 Nov 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sept-Oct 2022/Jan 2023</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>University of the Arts London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Any full-time taught Master’s course (Grad Dip, M ARCH, MA, MFA, MBA, MRes or MSc qualification) at one of UAL’s six Colleges starting in 2022/23.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Up to 4</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Students who are ordinarily residents in one of the low income economy countries (see the official website for the list).</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>The UAL International Postgraduate Scholarship provides a £50,000 award that covers the cost of tuition fees, accommodation at one of UAL’s halls of residence and may also contribute towards living costs.</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Criteria 1:You must hold an offer to study a full-time taught master’s course at one of UAL’s 6 Colleges starting in 2022/23.Criteria 2:You must be ordinarily resident in one of the low-income economy countries detailed in UAL’s list of qualifying countries (see the official website)ORyou are an asylum seeker in the UK at the point at which you make your scholarship application.</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.arts.ac.uk/study-at-ual/fees-and-funding/scholarships-search/ual-international-postgraduate-50,000-scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully-Funded Rotary Peace Fellowships</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>•Duke University and University of North Carolina at Chapel Hill, USA: Master of International Development Policy Program (MIDP) or various degrees offered by the University of North Carolina</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Deadline:15 May 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>USA, Japan, UK, Australia, Sweden, Thailand, Uganda</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>•Duke University and University of North Carolina at Chapel Hill, USA: Master of International Development Policy Program (MIDP) or various degrees offered by the University of North Carolina</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Professional Development Certificate Program or Master’s Degree Program in fields related to peace and conflict resolution and prevention</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Anyone endorsed by their local Rotary District.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>The fellowships cover tuition and fees, room and board, round-trip transportation, and all internship and field-study expenses.</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>The Rotary Peace Fellowship is designed for professionals with work experience in international relations or peace and conflict prevention and resolution. Applicants must also meet the following requirements:• Have three years of related work experience for the master’s program• Have five years of related work experience for the certificate program and be able to explain how their plan to promote peace aligns with Rotary’s mission (Candidates for Makerere University must either be from Africa, have worked in Africa, or work with African communities or initiatives outside the continent.)• Be proficient in English• Have a bachelor’s degree• Demonstrate leadership skills• Have a strong commitment to cross-cultural understanding and peace worked in Africa, or work with African communities or initiatives outside the continent.</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.rotary.org/en/peace-fellowships</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Oxford Pershing Square Graduate Scholarships</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Said Business School, University of Oxford in United Kingdom</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Deadline:12/21 Jan 2022 (annual)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>September 2022</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Said Business School, University of Oxford in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Eligibility/Selection Criteria:</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Open to all countries</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>As a Pershing Square scholar you will receive funding for both your Master’s degree and MBA programme course fees. The scholarship also provides at least £15,609 towards living expenses for both years of study.</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.sbs.ox.ac.uk/oxford-experience/scholarships-and-funding/oxford-pershing-square-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dean’s Award for Academic Excellence Scholarships at University of Bath</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>University of BathMasters Degree</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Deadline:26 April/16 July 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>September 2021</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>University of Bath in the UK</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>24 – 8 for each faculty</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Students of any nationality</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Each of the 3 Faculties will award 8 scholarships, each scholarship worth £5,000, which can only be used as fee waivers towards the cost of tuition fees. The fee waiver is applied to the first year of study only. There is no cash alternative to a fee waiver.</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>This scholarship is open to applicants of all nationalities (UK, EU and International applicants) and is awarded for academic excellence. Only those who have applied for a master’s degree course at any one of the aforesaid 3 faculties and who hold an offer from the University of Bath for a full-time taught master’s course starting in AY 2021, are eligible.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Applicants have to complete the University of Bath scholarship application form using the application tracker. They have to complete 3 to 5 questions as part of the scholarship application process for September 2021 entry.</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.bath.ac.uk/campaigns/deans-award-for-academic-excellence-scholarship/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Scholarships for MSc Development Economics at University of Kent</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>University of KentMasters Degree</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Deadline:21 June 2021</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>September 2021</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>The School of Economics at University of Kent</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>It is important to visit the official website (link found below) for detailed information on how to apply for this scholarship.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Nationals of low and lower middle-income countries.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Each scholarship is worth up to 50% of the full tuition fee. You should be aware that this scholarship does not cover the full cost of studying at Kent, and that you will need to have additional sources of funding in order to cover your accommodation, travel and living expenses.</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>The award of this scholarship is conditional upon students accepting a University of Kent School of Economics offer of a place to study on the MSc Development Economics programme for 2021/22. The scholarships are available to outstanding students from low-/lower-middle-income countries, who have secured a scholarship of at least 50% of the full tuition fee through another recognized funder.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.kent.ac.uk/scholarships/search/FN36ECODEV01</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Postgraduate Scholarships for International and EU Students at Nottingham Trent University</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Nottingham Trent UniversityMasters Degree</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Deadline:30 June/10 Nov 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sept 2021/Jan 2022</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Nottingham Trent University</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>International students from all over the world, including EU nationals.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>The scholarship award is up to 50% of tuition fees for international or EU postgraduate students for the first year of study.</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>To be eligible for consideration for an international scholarship, you must have been offered a place on an eligible course (see exclusions above) and be classed as an overseas student for tuition fee purposes (“International Student”).Applicants are only eligible to apply for a scholarship if you are an international student and are due to enrol on the first year of a course (or year 2 or 3 of an undergraduate course in the case of advanced entry) in January or September 2021 or January 2022.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ntu.ac.uk/international/scholarships-and-fees/scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Glenmore Medical Online Postgraduate Scholarship</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>University of EdinburghMasters Degree</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Deadline:4 June 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>September 2021</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>College of Medicine and Veterinary Medicine, University of Edinburgh</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Students from eligible developing countries, particularly in Africa</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>The scholarship will cover full tuition fees for the duration of the programme of study.</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Applicants should already have been offered a place at the University of Edinburgh on 1 of the eligible Human Medical programmes (listed above) and should have firmly accepted that offer or be intending to do so. They must be nationals of eligible developing countries included in theDAC List of ODA Recipients for reporting on aid in 2021.The scholarship will be awarded on the basis of academic merit and the strength of a personal statement.  Candidates must have, or expect to obtain, the overseas equivalent of a UK first-class honours degree.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ed.ac.uk/student-funding/postgraduate/e-learning/glenmore-online</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>The Denys Holland Scholarship at University College London</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>University College LondonBachelors Degree</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Deadline:2 July 2021 (annual)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sept 2021</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>University College London, UK</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bachelor’s Degree Programme in any subject offered at the University</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Students from any country</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>The scholarship is worth £9,000 per year for three years, subject to satisfactory academic progress.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Applicants should:• hold a valid UCL Student Number</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ucl.ac.uk/scholarships/denys-holland-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UWE Bristol Faculty of Health and Applied Sciences Dean’s Scholarship</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Deadline:30 June 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sept 2021</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Faculty of Health and Applied Sciences, UWE Bristol.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Masters degree programmes within the Faculty of Health and Applied Sciences: :</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1 for September 2021 start date</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>All students classed as overseas for fees purposes.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>The scholarship is worth 100% of tuition fees for 1 academic year.</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Applicants must:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www1.uwe.ac.uk/students/feesandfunding/fundingandscholarships/internationalstudentfunding/uweinternationalscholarships/postgraduatescholarships.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Carsten Stoehr Scholarship in Government at London School of Economics and Political Science</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Deadline:29 April 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>September 2021</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Department of Government, LSE</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Masters Degree Programmes within the Government Department:</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Open to all students</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>This scholarship has a value of £24,000.</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Eligible students are those who have been offered a place (conditional or unconditional) to one of the full-time MSc programme within the Government Department. It will be awarded on the basis of both financial need and academic merit.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.lse.ac.uk/study-at-lse/Graduate/fees-and-funding/carsten-stoehr-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LSE Master’s Awards at London School of Economics and Political Science</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Taught Masters Programme offered at the University</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Deadline:29 April 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>September 2021</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>London School of Economics and Political Science</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Taught Masters Programme offered at the University</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>International students preferably from low and middle income countries.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Awards can range in value from £5,000 to a full award.</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Applicants must be holding an offer for a taught Masters programme at LSE. Preference is given to those from low and middle income countries, particularly if loans are not available or if those countries are under-represented in other award schemes administered by the School.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.lse.ac.uk/study-at-lse/Graduate/fees-and-funding/lse-masters-awards</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Global Excellence Scholarships at University of Exeter</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>University of ExeterMasters Degree</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Deadline:23 April 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sep 2021</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>University of Exeter</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Full time taught Master’s degrees in eligible subjects areas listed at the official websiteexcept the following:</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>International students including EU students</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>A range of full, £10,000 and £5,000 scholarships are on offer.</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>You can apply for one of these scholarships if you are classified as an international student for fees purposes (including any EU students required to pay international fees) and you already hold an offer for an eligible full-time Postgraduate taught degree at the University of Exeter, commencing in September 2021.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.exeter.ac.uk/studying/funding/award/?id=3942</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GIIDAE Empowering Change Scholarship in International Development, Agriculture and Economics</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Reading UniversityMasters Degree</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Deadline:1 June 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>September 2021</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Graduate Institute of International Development, Agriculture and Economics (GIIDAE) at University of Reading</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Eligible full-time taught Masters degree offered by the Graduate Institute of International Development, Agriculture and Economics (GIIDAE):</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Not specified.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Students from World Bank member developing countries</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Two scholarships will be awarded, each worth £10,000 each. The funds are split between £5,000 towards living expenses and £5,000 applied as a tuition reduction.</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Applicants should be well-rounded students from World Bank member developing countries and be subject to international fees. They must have an offer of a place on one of the eligible programmes (see above). They should have an intention to create socio-economic change within their countries using what they have learned through their postgraduate studies with GIIDAE.See the full elibility criteria in the application guidelines found at the official website.</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.reading.ac.uk/apd/pg-taught/empoweringchangescholarship.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Erasmus Mundus Scholarships for Joint Master Degree in AquaCulture, Environment and Society (EMJMD ACES/ACES+)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Semester 1:Scottish Association for Marine Science (SAMS), which is an academic partner of the University of Highlands and Islands, UK. UHI-SAMS is a centre of excellence specialising in the environmental impacts of aquaculture, particularly in cold water marine environments, new innovative technologies and systems to reduce this impact.Semester 2:University of Crete, Greece – focus on finfish aquaculture.Semester 3:University of Nantes, France – focus on shellfish aquaculture.Semester 4:Industry-based research project, and students will be divided amongst all the partner universities (i.e. SAMS-UHI, the Universities of Crete, Nantes or Radboud), based on their choice of topic and availability of staff with the relevant research expertise.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Deadline:15 Feb 2021 (Annual)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>France, UK</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>September 2021</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Students study in different EU countries throughout the programme:</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Erasmus Mundus Joint Master Degree in AquaCulture, Environment and Society (EMJMD ACES/ACES+)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Non-EU and EU Students from Partner countries and Programme countries</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>There are 2 categories of scholarships: Partner Country scholarships and Programme Country scholarships.</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Eligible applicants for Partner Country scholarships are students who are not nationals of an EU country, Iceland, Norway, Lichtenstein, Turkey or the former Yugoslav Republic of Macedonia (FYROM). In addition, they cannot be residents of these countries nor have carried out their main activity (studies, training or work) for more than a total of 12 months over the last 5 years in any of these countries. The 5 year reference period for this 12-month rule is calculated backwards as from the submission deadline (defined by the consortia) of applying for an EMJMD student scholarship.Eligible applicants for Programme Country scholarships are all other students who do not meet the criteria for Partner Country scholarships (this includes all nationals of the European Union, Iceland, Norway, Lichtenstein, Turkey and FYROM, as well as, people who have spent more than a total of 12 months in the EU over the last 5 years).</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>To apply for a place on our next intake (2021-2023) you will need to complete in full two application forms – a University of the Highlands and Islands (UHI) and ACES application form. Once you have completed the forms, please email these, along with all supporting documents, as a single PDF file to Helen Bury at ACES[at]sams.ac.uk by15 February 2021.</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.emm-aces.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Skoll MBA Scholarships at Said Business School</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Said Business School at University of Oxford, UK.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Deadline:8 Jan 2021 (annual)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Sept 2021</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Said Business School at University of Oxford, UK.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Oxford Masters in Business Administration (MBA)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Home/international students</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>The scholarship covers the full costs of tuition and college fees for the MBA programme as well as partial living expenses based on need, up to an additional £14,985.</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Application instructions:Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://skollscholarship.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>The Marshall Scholarship for Americans to study in the UK</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>• Second BA/BSc (undergraduate) Degrees• MBA (any university)• MPhil Development Studies (University of Oxford only)• MSc/MFE Financial Economics (any university)• MSc Global Health Science and Epidemiology (University of Oxford only)• MSc International Health and Tropical Medicine (University of Oxford only)• MSc Law and Finance (University of Oxford only)• MPP (Public Policy) (University of Oxford only)• PG Diplomas/Certificates in any subject (any university)• Degrees leading to professional qualifications in medicine, dentistry, veterinary science and law (these degrees typically take 5 years to complete)• Degrees that require extended periods away from the University or the UK, including joint degrees with Universities not in the UK• Distance Learning Degrees• Supervised research not leading to a degree qualification.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Deadline:Late Sep/Early Oct 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Autumn 2021</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Any UK university</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>US citizens</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>The scholarship covers university fees, cost of living expenses, annual book grant, thesis grant, research and daily travel grants, fares to and from the United States and, where applicable, a contribution towards the support of a dependent spouse. The total value of a Marshall Scholarship varies according to the circumstances (place of residence, selected university, etc.) of each Scholar but the figure tends on average to be about £38,000 a year.</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Applicants must be United States citizens who, at the time they take up their Scholarship, hold a first degree from an accredited 4-year college or university in the United States with a minimum GPA of 3.7. To qualify for awards tenable from October 2021, candidates must have graduated from their undergraduate college or university after April 2018. Persons already studying for or holding a British degree or degree-equivalent qualification are not eligible to apply for a Marshall Scholarship.The Selectors will look for candidates who have the potential to excel as Scholars, as leaders and as contributors to improved UK-US understanding. Assessment will be based on academic merit, leadership potential and ambassadorial potential.</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Applications are made in 1 of 8 regions in the United States. See the official website for the appropriate regional centre the applicant should apply in. Candidates may apply in 1 region only – either that in which they have their permanent home address or ordinary place of residence/employment, or that in which they are studying. The application closing date is specific to each regional centre, but it generally falls betweenlate September and early October 2020for studies commencing September/October 2021.</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.marshallscholarship.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Dundee Global Excellence Postgraduate Taught Scholarship</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>University of DundeeMasters Degree</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Deadline:admissions deadline (Annual)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Sep 2020/Jan 2021</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>University of Dundee</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Postgraduate taught programme commencing September 2020 or January 2021 in the following subjects:</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>International students from all countries</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>£5,000 for 1 year only.</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Only students determined to be Overseas Fee students by the university are eligible for the scholarships. Only those who have achieved a UK 1st Class Honours degree, or equivalent, are eligible. They must be holding an academic offer of entry for a postgraduate taught programme in any of the university’s academic schools, commencing September 2020 or January 2021. The programe must be a full 180 credit, 12 month programme.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>There is no separate application form for this scholarship and the university does not accept written applications. The Admissions Team at the university will assess your eligibility for this scholarship as part of your programme application.</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.dundee.ac.uk/scholarships/2020-21/uod-global-excellence-pg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Women in Leadership Scholarship at University of Surrey</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>University of SurreyMasters Degree</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Deadline:1 Nov 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Oct 2020</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Surrey Business School</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>MBA and Executive MBA</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Female students from around the world</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Scholarships can cover between 10 – 50% of the total tuition fee.</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Applicants should be female candidates who wish to improve personally and professionally and develop their ability to lead innovation and succeed in the rapidly-changing world. They must hold a lower second-class degree or equivalent. Alternative qualifications may be considered. See the official website (link found below) for entry criteria to the MBA programmes. Applicants can be UK, EU or overseas students and they must be applying to study full or part time.EU and overseas students must comply with the English language requirements (IELTS Academic: 6.5 overall grade with 6.0 in each element or equivalent).</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.surrey.ac.uk/fees-and-funding/scholarships-and-bursaries/women-leadership-scholarship-2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Colt Foundation PhD Fellowships in Occupational/Environmental Health</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Deadline:1 Sept 2020 (Annual)Study in: UKCourse starts University-dependent</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>UK universities</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PhD in occupational or environmental health</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>All students from all over the world</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>The Fellowship provides 3 elements of funding:</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>In selecting Fellows, the Colt Foundation takes into account the academic track record of the applicant, the quality of the research project that will be undertaken, and the environment in which the PhD training will be undertaken, including the commitment of the supervisors. Applicants with the potential to become future research leaders in occupational and environmental health, will be supported.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.coltfoundation.org.uk/phd-fellowships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Váradi Distance Learning Scholarships at University of London</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>József Váradi/University of LondonMasters/Undergraduate Degree</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Deadline:17 July 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Oct 2020/April 2021</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>University of London in UK</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Online studies in:</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Students from all countries, but particularly those from Central and Eastern Europe – namely, Albania, Bosnia, Bulgaria, Croatia, Czech Republic, Estonia, Hungary, Kosovo, Latvia, Lithuania, Moldova, Montenegro, North Macedonia, Poland, Romania, Serbia, Slovak Republic, Slovenia and Ukraine.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>The Váradi scholarships cover all University of London tuition fees. The scholarships do not cover any fees or costs (such as computers and additional study materials or Teaching Centre fees) not directly payable to the University of London. The Váradi Scholarship will be valid for the maximum period of registration for the full online programme.</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Eligible candidates are all new students to the University, applying to study any of the eligible Bachelors and Masters distance learning programmes (see above). You will need to demonstrate that without the scholarship you would not be able to undertake the programme. Only those who are given an offer for 1 of the above eligible programmes are eligible.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://london.ac.uk/applications/funding-your-study/scholarships-and-bursaries/varadi-scholarships#eligibility-19980</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Professor Rae Earnshaw Masters Scholarship at University of Bradford</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>University of BradfordMasters Degree</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Deadline:12 June 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>University of Bradford</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Masters degree in any subject offered at the University</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Outstanding, self-funding students from around the world</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>For Home/EU students, the scholarship covers full tuition fees.</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Applicants must be self-funding UK or international students from around the world, with a first class honours degree, and who will be registered to start Masters degree studies in September 2020. Scholarships are awarded to the students who submit the best statements on the application form as judged by the panel. The criteria for selection are academic excellence and financial need.All full-time taught MSc and MA courses (either Lab or classroom-based) at the University of Bradford are eligible for the scholarship.</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.brad.ac.uk/scholarships/info/Professor-Rae-Earnshaw-Masters-Scholarship-2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>University of East Anglia International Undergraduate Scholarships</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>University of East AngliaUndergraduate Degree</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Deadline:31 May 2022 (Annual)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>September 2022</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>University of East Anglia</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>International and EU students</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>This scholarship is worth £4,000 per year of study for three years of your bachelor’s degree with the very best submissions considered for awards of up to £8,000 per year.</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>When applying for this scholarship, you must already be in possession of a conditional or unconditional offer for the first year of an undergraduate degree course starting at UEA in September 2022. Your offer should state that you are an international fee-paying student.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.uea.ac.uk/study/fees-and-funding/scholarships-finder/scholarships-a-z/international-scholarship-schemes-4000</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Faculty of Health and Applied Sciences Dean’s Scholarship at UWE Bristol</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>The University of the West of England Bristol (UWE Bristol) is making available the Faculty of Health and Applied Sciences Dean’s Scholarship to commencing full-time MSc students from a country that has recently been subject to a significant adverse environmental, health or security impact, where its alleviation relates to the subject area of the selected MSc programme. Following graduation, the scholar is expected to be an active member of the UWE Bristol Alumni Network by helping the University to promote its programmes to prospective students.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Deadline:30 April 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Faculty of Health and Applied Sciences, University of the West of England Bristol</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Masters degree in Health and Applied Sciences</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Students from countries that recently have been subject to a significant adverse environmental, health or security impact</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>The scholarship covers 100% of the tuition fees for 1 academic year.</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Only students classified as overseas students for fees purposes are eligible for this scholarship, provided they are from countries recently subject to a significant adverse environmental, health or security impact. The Masters degree course chosen by the applicant must be one which relates to the alleviation of such adverse impacts.Applicants must have achieved the equivalent of a British 1st or 2:1 in an undergraduate degree and hold an unconditional offer or a conditional offer where IELTS or equivalent English language is the only condition. They have to be new students to UWE Bristol with no previous UK study. Those who are sponsored students or who are in receipt of another scholarship/award, are not eligible.</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www1.uwe.ac.uk/students/feesandfunding/fundingandscholarships/internationalstudentfunding/internationalscholarships/postgraduatescholarships.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Geoffrey Oldham Memorial Scholarships in Science Policy Research at University of Sussex</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>University of SussexMasters Degree</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Deadline:1 June 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Science Policy Research Unit (SPRU) at the University of Sussex</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Masters degree in courses under Science Policy Research Unit (SPRU):</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Students from all countries</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Each scholarship is worth £10,000, which will be used towards tuition fee reduction.</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Eligible applicants are those who have accepted an offer of a full time place on 1 of the eligible Masters courses in SPRU (see above).Application instructions:</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.sussex.ac.uk/study/fees-funding/masters-scholarships/view/1118-Geoffrey-Oldham-Memorial-Scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Planning and Environmental Management Taught Masters Merit Award at University of Manchester</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>University of ManchesterMasters Degree</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Deadline:29 May 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>School of Environment, Education and Development at University of Manchester</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>This award can be held alongside other awards.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Students from any country</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>50% tuition fee waiver for the duration of study. Continuation of the award is subject to satisfactory progress.</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Applicants can be from any country, but they must hold a First Class Honours first degree or equivalent. They must also be holding an offer of study at The University of Manchester before they can apply for this funding. The offer must be unconditional by 22 June 2020 in order for the scholarship applicant to be considered.This award can be held alongside other awards.</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.manchester.ac.uk/study/masters/funding/opportunity-search/display/?id=00000382&amp;offset=0&amp;sort=name&amp;sortdir=ascending&amp;subjectArea=&amp;nationality=&amp;submit=</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Scotland’s Saltire Scholarships at University of Edinburgh</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>The Scottish Government, in partnership with Scottish Higher Education institutions, is offering up to 50 awards to students from selected countries, for 1 year of a taught postgraduate Masters course in selected subjects at any of Scotland’s higher education institutions, which includes the University of Edinburgh.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Deadline:31 July 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>The University of Edinburgh</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>The scholarship will be awarded on the basis of academic excellence. Candidates must have, or expect to obtain, the international equivalent of a UK first class or 2:1 Honours degree at undergraduate level.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Up to 50 (across all the Scottish Universities)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Nationals of Canada, China (including Hong Kong), India, Japan, Pakistan and USA.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Each scholarship will amount to £8,000 and will be tenable for 1 academic year. The award will be deducted from tuition fees.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>The scholarships will be awarded to citizens who are permanently and ordinarily resident in Canada, China, Hong Kong, India, Japan, Pakistan, and the USA, and who are accepted for admission on a full-time basis for a postgraduate 1 year Masters programme of study in eligible subjects at the University of Edinburgh (see above).The scholarship will be awarded on the basis of academic excellence. Candidates must have, or expect to obtain, the international equivalent of a UK first class or 2:1 Honours degree at undergraduate level.</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ed.ac.uk/student-funding/postgraduate/international/other-funding/saltire</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Global Leaders Scholarship at University of Bath</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>University of BathMasters Degree</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Deadline:20 Jan/27 April/17 July 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Faculty of Engineering &amp; Design, Faculty of Humanities &amp; Social Sciences or Faculty of Science at University of Bath</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Students of all nationalities</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>There are 45 Global Leaders Scholarships worth £5,000 each, to be used as fee waivers towards the cost of tuition fees. The fee waiver is applied to your first year of study only. There is no cash alternative to a fee waiver. Scholarships cannot be deferred and are for the 2020/21 academic entry year only.</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>To apply, you must hold an offer from the University of Bath for a full-time taught master’s course for entry year 2020/2021. The course must be based in the Faculty of Engineering &amp; Design, Faculty of Humanities &amp; Social Sciences or Faculty of Science. This scholarship is open to applicants of all nationalities (UK, EU and International applicants).Application instructions:</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.bath.ac.uk/campaigns/global-leaders-scholarship/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Westminster Undergraduate Full Scholarships</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>University of WestminsterUndergraduate Degree</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Deadline:29 May 2020 (annual)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>University of Westminster, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Any eligible Undergraduate Programme offered at University of Westminster.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Students from developing countries. If your country isnoton the listthen you are eligible to apply.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Full tuition fee waivers, accommodation, living expenses and flights to and from London. The scholarship will be renewed each year subject to satisfactory academic performance.</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>You must be an international student from a developing country and hold an offer for a full-time undergraduate degree at the University.  The criteria for awarding the scholarships are academic excellence, development potential and financial need.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Applications for September 2021 scholarships will open at the end of February.</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.westminster.ac.uk/study/fees-and-funding/scholarships/westminster-undergraduate-full-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>The University of Sheffield Africa Scholarship</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>University of SheffieldMasters Degree</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Deadline:11 May 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sep 2020</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Department of Geography, University of Sheffield</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Full-time coursework studies in the following Masters degree programmes:</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Students from Africa</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>The scholarship award provides for full tuition fee waiver, maintenance for University accommodation and a monthly stipend.</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>You must have applied to study on 1 of the abovementioned courses to study at the University of Sheffield, starting in the Autumn term and must be national of, or permanently domiciled in an African country. You must be classified as overseas student for tuition fee purposes and you are self-funded, i.e. not funded by a research council, government, private enterprise, charity or any similar organisation. This scholarship cannot be awarded in conjunction with any other funding awards, either from the University of Sheffield or external sources.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>In your application, you must provide a clear rationale for applying for a postgraduate course at the University of Sheffield and outline challenges to academic progress as well as provide details on how these barriers have been overcome successfully. You have to provide examples of work experience in the field of International Development and articulate future ambitions. You should relate your goals to the postgraduate degree you have applied for, and how your learning will benefit others from your country. The scholarship application deadline is11 May 2020for September 2020 entry.</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.sheffield.ac.uk/international/fees-and-funding/scholarships/postgraduate/usas</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MSc Entrepreunership and Innovation Scholarships at the University of Exeter</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>University of ExeterMasters Degree</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Deadline:30 April 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>The Business School, University of Exeter</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Masters degree in Entrepreneurship and Innovation Management</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Budding entrepreneurs who are undertaking the MSc Entrepreneurship and Innovation Management programme</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>One full International Fee award and one full Home/EU Fee award, for 1 year.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Applicants must be budding entrepreneurs holding a 2:2 degree or above in a business or related subject. The scholarship also requires you to have an English language level of IELTS 7.0 with no section less than 6.0, or equivalent, if from a non-anglophone country.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.exeter.ac.uk/postgraduate/money/fundingsearch/awarddetails/?id=3851</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Peace Studies and International Development Scholarship at University of Bradford</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>University of BradfordMasters Degree</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Deadline:Not specified (Annual)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>School of Social Sciences, University of Bradford</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Eligible Masters degrees related to Peace Studies and International Development:</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>All students from all countries</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>All international students will be awarded a £5000 scholarship as a fee reduction. All home students will be awarded a £2000 scholarship as a fee reduction.</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>All students that have been offered a place on any of the eligible courses (see above) will be considered for the scholarships.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>These scholarships are automatically processed together with the application for admission to the course and no separate application for the scholarship is required. The deadline for admission isnot specified. Check with the University for the deadline.</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.bradford.ac.uk/scholarships/info/Peace-Studies-and-International-Development-Scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Wellcome Trust Master’s Studentship in MSc Public Health at London School of Hygiene and Tropical Medicine</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Deadline:29 April 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>London School of Hygiene and Tropical Medicine (LSHTM)</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Masters in Public Health</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Students applying to the MSc Public Health, who are planning a career in health-related humanities or social science research.</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>The studentship will support:</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Applicants must be individuals who are planning a career in health-related humanities or social science research. As this studentship is competitive, candidates should hold, or be expected to hold by 1 September 2020, qualifications of the same standard as a good honours degree at first or upper second class level from a UK academic institution in a humanities or social science discipline. Applicants are also expected to demonstrate experience in health-related humanities or social science research.The studentship is only available to applicants who are assessed as having a UK/EU fee status, according to the regulations set out on the UKCISA website. Applicants must hold an offer of admission for 2020-21 entry for the London-based (face-to face) MSc Public Health programme at the London School of Hygiene &amp; Tropical Medicine by the studentship deadline of 29 April 2020.</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Applicants must first submit a complete application for MSc Public Health via LSHTM’s online application portal. Complete applications, including all necessary supporting documents, must be submitted by the Scholarship application deadline. It is however, recommended that applicants for this funding apply for their study/programme by 22 April 2020 in order to ensure that there are no processing delays which could impact on meeting the scholarship deadline. Applicants must submit an application for this studentship funding via the Scholarships online application form by29 April 2020. A completed supplementary questions form for this scholarship must be uploaded as part of this application.</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.lshtm.ac.uk/study/fees-and-funding/funding-scholarships/2020-21-wellcome-trust-masters-studentship-msc-public-health</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>International Water Association and Cranfield University Excellence Scholarships</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Cranfield University is inviting students who wish to undertake full-time taught Masters degree programmes commencing AY 2020 at the university’s Water Science Institute, to apply for the International Water Association and Cranfield University Excellence Scholarships, which are intended for highly skilled professionals keen to deliver sustainable and resilient responses to the challenges of increasing water stress.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Deadline:30 Apr 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>October 2020</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Cranfield Water Science Institute, Cranfield University</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Masters degree programmes eligible for this scholarship are:</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Citizens of any country</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>The scholarship covers full tuition fees (at overseas or UK rates). Scholars will also benefit from enhanced engagement with the IWA Young Professionals programme, which provides excellent opportunities to develop a global peer network.</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Applicants can be citizens of any country, but must be applying to study full-time on an eligible master’s course and are holding either a relevant first class or 2:1 honours degree, or who demonstrate significant practical experience and achievements in water or an aligned sector. The scholarships will be awarded on a competitive basis. Scholarship applicants must possess a strong academic or work experience record and must be effective communicators.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.cranfield.ac.uk/funding/funding-opportunities/international-water-association-and-cranfield-university-excellence-scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Institute of Development Studies Scholarship at University of Sussex</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>University of SussexMasters Degree</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Deadline:30 April 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Institute of Development Studies, University of Sussex</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Masters degree in development-related studies offered by IDS</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>International students from lower- and middle-income countries</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>The scholarship will contribute towards tuition fees for a taught full-time master’s degree plus essential living costs. The award amount is up to £18,500 for fees and up to £11,000 for essential living costs.</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Applicants must be nationals of and resident in lower or middle income countries. See the official website (link found below) for all eligible countries.To be considered for the scholarship, applicants must:</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ids.ac.uk/learn-at-ids/get-funding/ids-graduate-scholarship-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Nutrition in Emergencies Scholarships at University of Westminster</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>University of WestminsterCertificate/Non Degree</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Deadline:10 April 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>June 2020</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>University of Westminster</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Short course in Nutrition in Emergencies</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>International students from developing countries. The following is a list of countries considered to be ‘developed’. If your country isNOTon the list then you are eligible to apply.</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Full fee scholarship for the short course. The fee for this course is £995.</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Applicants must be international students from developing countries, who are employed in a relevant sector in a country prone to disaster and who have financial need. They should be interested in learning how to deliver nutritional support services to people affected by humanitarian disasters.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.westminster.ac.uk/study/fees-and-funding/scholarships/short-course-nutrition-in-emergencies-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Hatfield Lioness Scholarship at University of Durham</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>University of DurhamMasters Degree</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Deadline:31 March 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>October 2020</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hatfield College, Durham University</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Masters degree in any field, except MBA</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Female students from developing countries (see the Official Website for eligible developing countries)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>The scholarship will cover for 1 academic year the following:</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Applicants should:• hold a relevant honours degree of sufficient standard to be admitted to their chosen Masters course; and• have all other course entry requirements including the relevant English language qualification. UK immigration regulations require the University to ensure that international applicants accepted for study in the UK are competent in English language at a minimum level of B2 on the Common European Framework of Reference for Languages for speaking, listening, reading and writing. Even those from countries in which education is carried out in English will need to provide evidence of a specific qualification that meets this requirement (awarded no more than 2 years before the start of your course).</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.dur.ac.uk/scholarships/lioness/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Equal Access Scholarships at University of York</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>University of YorkUndergraduate Degree</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Deadline:30 April 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>University of York</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Bachelors degree in any field, except undergraduate studies at Hull-York Medical School.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Refugees and asylum seekers in the UK</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>The scholarship provides a full tuition fee waiver and a maintenance award of up to £10,660 to help with living costs.</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Applicants must be International (non-EU) students, whose current current immigration status is:• Discretionary/limited leave to remain (DLR/ LLR);• Indefinite leave to remain (ILR);• Humanitarian Protection (HP);• Awaiting a decision on application for refugee status;• Leave as an Unaccompanied Asylum Seeking Child (UASC leave)• Refused Asylum Seeker – where the application for refugee status has been refused and the candidate has submitted an appeal or a fresh claim; or• A dependent or partner of any of the above status groups.</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>As part of the application, you will need to provide a personal statement of maximum 400 words:</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.york.ac.uk/study/undergraduate/fees-funding/international/scholarships/asylum-seekers-scholarship/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Vice Chancellor’s International Scholarship for Research Excellence at University of Nottingham</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>University of NottinghamPhD Degree</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Deadline:24 April 2020 (annual)</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1 Oct 2020-1 Feb 2021</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>University of Nottingham, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Full-time PhD or MPhil in any subject (excluding engineering) at University of Nottingh</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Students classified as ‘overseas’ for fee purposes</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>The scholarships cover the tuition fees and a £1,015 monthly living allowance.  These will be awarded in each year of your three-year PhD, subject to satisfactory progress.</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>You can apply for this scholarship if you:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Due to changes in the University’s scholarship allocation following the Covid-19 pandemic, this scholarship will not be awarded in 2021.</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Official Website:https://www.nottingham.ac.uk/pgstudy/funding/vc-scholarship-for-research-excellence-international</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Humanitarian Scholarship at University of Dundee</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>University of DundeeMasters Degree</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Deadline:31 March 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>University of Dundee</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Eligibility:</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>EU, Overseas, and students from the rest of UK with Refugee Status or under Humanitarian Protection, recognised by the 1951 UN Convention on the Status of Refugees.</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>The Scholarship will provide a full tuition fee waiver for the year of study, plus a monthly stipend and accommodation costs. The value of the scholarship is up to £38,500.</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Applicants must hold an academic offer of entry for a postgraduate taught programme in any of the University’s academic schools, beginning in September 2020 or January 2021. The programme must be a full 180 credit, 12 month programme. They can be from anywhere in the world, but they must have Refugee Status or Humanitarian Protection, as recognised by the 1951 UN Convention on the Status of Refugees. See the Official Website for list of all countries who are eligible.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.dundee.ac.uk/study/scholarships/2020-21/humanitarian-scholarship/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Wellcome Award for Global Health &amp; Social Justice MSc</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Deadline:31 March 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Faculty of Social Science &amp; Public Policy at King’s College London</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>MSc in Global Health &amp; Social Justice</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>All nationalities of students who wish to pursue careers in global health, anthropology, ethics, philosophy or public policy.</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>The scholarship will cover all (UK/EU or international) tuition fees for the Global Health &amp; Social Justice MSc. Scholarship recipients will also receive:</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>All applicants, irrespective of nationality, are eligible to apply for the scholarship. However, applicants from low- and middle-income countries (LMIC) and from groups historically under-represented in postgraduate courses are especially encouraged to apply as the scholarship aims to help build a cohort of strong and diverse global health leaders.The scholarship will be awarded on the basis of academic merit and degree of motivation and commitment to understanding and addressing global health inequalities.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.kcl.ac.uk/ghsm/postgraduate/scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Marshal Papworth Scholarships in Agriculture for Developing Countries</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>• Aberystwyth University• Cranfield University• Bangor University• Royal Agricultural College• Harper Adams University (Marshal Papworth 10-week Short Course is also offered here)• The University of Reading and• Writtle University College.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Deadline:varies, early April 2021 (annual)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sept/Oct 2021</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>The participating UK universities and colleges for the Masters scholarships are:</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Masters degree courses  that are eligible for the scholarships are:</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>15 Masters scholarships and 22 short course scholarships over 2 years</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Students from developing countries.</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>The scholarship for the 10-week short course at Harper Adams University, comprises coverage for the 240 hours of tuition including 10 hours of IT tuition, which are paid directly to the university; visa assistance; flights to and from the UK and transport to and from Heathrow airport; accommodation which is provided on-site at Shuttleworth College in the Halls of Residence; meals in the college’s garden restaurant; an allowance to cover food costs for self-catering at weekends; and a schedule of cultural visits.</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Applicants should be nationals of and resident in developing countries (countries with a GNI per capita below US$11500), and scholarship candidates who fully meet the criteria for the courses will be shortlisted for the scholarships against 3 main criteria: academic excellence, professional experience (includes experience gained in a voluntary capacity) in community development and/or agricultural development, and the potential for contribution to development in their home country after completion of their degree programme.Applicants should be talented individuals who demonstrate that they have the potential, at the end of their Masters programme, to motivate people and communities in their home country towards positive change. Applicants must have a good command of the English Language.</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.marshalpapworth.com/our-scholarships/scholarship-details/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Sciences Research Scholarships at Lancaster University</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Lancaster UniversityPhD Degree</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Deadline:28 February 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>October 2020</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Faculty of Arts and Social Sciences</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>• Cultures of Creative Practice and Social Change (Department of Languages and Cultures)• Rurality, Help-Seeking and Care Proceedings (Law School)• Transnationalism, Mobility &amp; Borders (Lancaster Institute for the Contemporary Arts)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>All students, including UK, EU and international students.</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>The funding will cover all course fees for the duration of the PhD studies. In addition, scholars will receive £15,000 per year as contribution towards maintenance costs.</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>•Cultures of Creative Practice and Social Change: Applicants should be researchers interested in addressing 1 or more of the following areas of enquiry and work should be in 1 or more of the department’s major languages: Chinese, French, German, or Spanish:– How can we theorise translation as a creative and/or critical practice?– How are digital literatures and new hybrid forms generating new creative futures?– How can creative work be socially useful, either by influencing cultural-political practices or by expressing aesthetic resistance to oppressive forces and advocating for social change?– Authorship, collaborative creativity, and their outreach – can creative practices be furthered through residency programmes (and how can extra-literary practices of this kind by gauged)?</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Scholarship candidates should first apply for a PhD in the appropriate department through the University’s online application system. Applicants have to indicate the title of the scholarship for which they are applying, in the Source of Funding section of the online programme application. The deadline for application is 5pm GMT onFriday 28 February 2020.</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.lancaster.ac.uk/arts-and-social-sciences/study/postgraduate/funding/fully-funded-research-scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Wellcome Award MSc in Health and International Development</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Deadline:27 Apr 2020 (annual)</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sept 2020</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>London School of Economics and Political Science</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>MSc in Health and International Development</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>One student per year, for 3 years, entry in 2019, 2020 and 2021.</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>All students</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>These scholarships are part of a grant secured from Wellcome to support the MSc programme. The scholarship value is a maximum of £31,088. This will cover the full fees for the programme and the remainder can be used for living costs. The amount remaining for living costs will vary depending on fee classification. For either a UK or EU fee candidate the stipend will be £17,000 while for an overseas fee candidate it will be £9,344. Scholarship recipients will also be able to apply for up to £3,333 research funding to support their dissertation research.</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>This scholarship is open to all applicants to the MSc in Health and International Development programme. The scholarships will be awarded on the basis of both financial need and academic merit.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.lse.ac.uk/study-at-lse/Graduate/fees-and-funding/Wellcome-Award-MSc-in-Health-and-International-Development</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MSc Climate Change, Management &amp; Finance Social Impact Scholarships</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Deadline:2 March 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>September 2020</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Imperial College Business School</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Climate Change, Management &amp; Finance</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1 award for the Bseisu-Imperial College London Scholarship; not specified for the rest</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Eligible students applying for the MSc Climate Change, Management &amp; Finance</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>• Bseisu-Imperial College London Scholarship: Full tuition fee• Technology and Innovation Scholarship: £20,000• Social Impact Scholarship: £20,000• Imperial Business Scholarship: £10,000• Imperial College Scholarship: 50% of the tuition fees</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>• Bseisu-Imperial College London Scholarship: Applicants for the full-time MSc from Palestine, Syria, Lebanon or Jordan.• Technology and Innovation Scholarship: Students who can demonstrable passion for innovation and technology, with a strong academic background and/or academic potential.• Social Impact Scholarship: Students who demonstrate outstanding citizenship and commitment to supporting their community and/or social causes.• Imperial Business Scholarship: Students with all round excellence in their application, demonstrating academic merit, strong professional or internship experience, clear career plan and leadership potential.• Imperial College Scholarship: Imperial College London students or alumni with exceptional academic performance and a strong overall application. Exceptional academic performance in an Imperial degree, typically at strong first class honours level. Candidates who are currently in their final year will be assessed on their marks to date and predicted performance.See the Official Website (link found below) for details of eligibility requirements specific to each scholarship.</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Except for the Bseisu-Imperial College London Scholarship, applications for all the other scholarships must be done by2 March 2020. There is no separate application needed for the Bseisu-Imperial College London Scholarship, as eligible candidates will automatically be considered for the scholarships when they apply for the MSc Climate Change, Management &amp; Finance Social Impact programme.</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.imperial.ac.uk/business-school/programmes/msc-climate-change/fees-and-funding/scholarships/#bseisu-imperial-college-london-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Wellcome Trust Doctoral Studentships at The London School of Hygiene &amp; Tropical Medicine (LSHTM)</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The London School of Hygiene &amp; Tropical Medicine (LSHTM) is inviting researchers who wish to undertake a 3-year PhD in any humanities or social science area on a topic related to health at the University commencing AY 2020/2021, to apply for the Wellcome Trust Doctoral Studentships.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Deadline:16 March 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>AY 2020-2021</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>London School of Hygiene &amp; Tropical Medicine</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PhD in humanities or social sciences, related to Health</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Researchers who wish to undertake a 3-year PhD in any humanities or social science area on a topic related to health</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>A Doctoral Studentship is usually for 3 years, although requests to undertake PhDs on a part-time basis (for example, if someone has family commitments or intends to keep up another career for sufficient hours to maintain a professional accreditation) will be considered.</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Applicants must be applying to a 3 year PhD in any humanities or social science area on a topic related to health. They have to be holding, or expecting to hold, a relevant Masters degree, or have equivalent research experience. They must have been accepted into the PhD programme with LSHTM and have not yet started their PhD studies.Applicants will be assessed on:• the significance and originality of their proposed research• the suitability and relevance of their approach to their research topic• the suitability of the host organisation and department for their research and for developing their career and• their track record, for example assessed work during their Masters course.</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.lshtm.ac.uk/study/fees-and-funding/funding-scholarships/2020-21-wellcome-trust-doctoral-studentships</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>School of Life Sciences (SLS) Excellence Scholarships at University of Warwick</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>University of WarwickMasters Degree</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Deadline:20 May 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>October 2020</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>School of Life Sciences, University of Warwick</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>SLS offers the following MSc courses:</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Open to all students</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Up to 5 School of Life Sciences (SLS) Excellence Scholarships will be awarded as a 50% reduction of course fees.</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>SLS Excellence Scholarships are competitive and awards will be based on past academic achievement and experience, the candidate’s motivation for study, extracurricular activities and the candidate’s vision for the future.All home, EU and international students are eligible. Before applying, applicants should have an offer to study on a School of Life Sciences full-time taught MSc course starting October 2020. They should have an excellent academic track-record, typically the equivalent of a British 1st Class Honours Degree. For conditional offer-holders, scholarship awards will also be conditional on achieving any language requirements and the awardee’s final predicted grade.</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://warwick.ac.uk/fac/sci/lifesci/study/pgt/funding/slsexcellencescholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Erasmus+ Scholarships for the Master in Education Policies for Global Development (GLOBED)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>• The Globalisation, Education and Social Policies research group at the Universitat Autònoma de Barcelona• The College of Social Sciences at the University of Glasgow• The Department of Political Sciences at the University of Bremen• The Department of Educational Sciences at the University of Cyprus.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Deadline:10 Feb 2020 (Annual)</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Germany, Spain, UK</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sept 2020</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>• The Globalisation, Education and Social Policies research group at the Universitat Autònoma de Barcelona• The College of Social Sciences at the University of Glasgow• The Department of Political Sciences at the University of Bremen• The Department of Educational Sciences at the University of Cyprus.</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Master in Education Policies for Global Development</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Students from all over the world</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>There are 2 categories of scholarships: Partner Country scholarships and Programme Country scholarships.</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Eligible applicants for Partner Country scholarships are students who are not nationals of an EU country, Iceland, Norway, Lichtenstein, Turkey or the former Yugoslav Republic of Macedonia (FYROM). In addition, they cannot be residents of these countries nor have carried out their main activity (studies, training or work) for more than a total of 12 months over the last 5 years in any of these countries.Eligible applicants for Programme Country scholarships are all other students who do not meet the criteria for Partner Country scholarships (this includes all nationals of the European Union, Iceland, Norway, Lichtenstein, Turkey and FYROM, as well as, people who have spent more than a total of 12 months in the EU over the last 5 years).</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Applications for Erasmus+ Scholarships for the GLOBED 5th Edition, which will start September 2020, must be submitted online by10 February 2020.</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://globed.eu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Edinburgh Global Research Scholarships</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>University of EdinburghPhD Degree</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Deadline:17 Feb 2020 (annual)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sept 2020</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>University of Edinburgh, UK</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Application instructions:</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>International students</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Each scholarship covers the difference between the tuition fee for aUK/EUgraduate student and that chargeable to an overseas graduate student. The awards do not cover maintenance expenses.</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>The awards are open to overseas nationals commencing a PhD in any field of study in 2020-2021. Applicants must be liable to pay tuition fees at the rate applicable to overseas students and must have been applied admission to a full-timePhDresearch programme of study.Applicants must be of outstanding academic merit and research potential. Although candidates with an upper second class honours Bachelor’s degree (or the overseas equivalent) can be considered, in order to be competitive you should really have a first class Bachelor’s degree supplemented by an excellent Master’s degree.</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ed.ac.uk/history-classics-archaeology/graduate-school/fees-funding/funding/phd/global</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>St. Cross Worldwide Scholarships</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>University of OxfordMasters Degree</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Deadline:7 June 2019 (annual)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>October 2019</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>University of Oxford, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>One-year Master’s (MSc/MSt) course at the University of Oxford</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Students from one of the six continents (Africa, Asia, Europe, North America, South America and Oceania) who is unable to secure full funding from elsewhere</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Each Worldwide Scholarship has a value of £10,000.   The successful scholar will be given priority for a room in College accommodation (at the standard rent) for the year of their course.</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>In order to apply for this scholarship, applicants must:Please note that this scholarship is not open to students who have already been accepted by another Oxford college.</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.stx.ox.ac.uk/prospective-students/funding-support/st-cross-worldwide-scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Tony Shaw – International Students House (ISH) Scholarships</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>University of WestminsterMasters Degree</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Deadline:31 May 2019 (annual)</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>September 2019</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>University of Westminster, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Any eligible Masters Programme within the Westminster Business School</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Students from developing countries.  If your country isnoton the list then you are eligible to apply.</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Full tuition fee award, accommodation, living expenses and flights to and from London.</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>You must be an international student from a developing country and hold an offer for a full-time Masters in a subject within the Westminster Business School at the University. The criteria are: Equivalent to a UK First Class Honours degree, financial need and development potential.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.westminster.ac.uk/study/fees-and-funding/scholarships/tony-shaw-international-students-house-ish-scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Bath Spa University Vice Chancellor’s International Scholarship</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Bath Spa UniversityMasters Degree</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Deadline:31 May 2019 (annual)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sept/Oct 2019</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Bath Spa University, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Any full time Postgraduate Taught Masters Degree Program taught on-campus</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>International students (Non-UK)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>£5,000 of first year of fees</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Applications are open for candidates who are entering one-year postgraduate programmes at Bath Spa University starting in September.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Application are done online.  The deadline is Midnight (BST) on31 May 2019.</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.bathspa.ac.uk/students/student-finance/scholarships-and-funding/international-office-scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Civil Society Leadership Awards</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Host Universities in France, Germany, Hong Kong, Hungary, Latvia, Netherlands, Poland, UK, Ireland and United States.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Deadline:15 May 2019 (annual)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>various countries</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Aug/Sept 2019</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Host Universities in France, Germany, Hong Kong, Hungary, Latvia, Netherlands, Poland, UK, Ireland and United States.</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Master’s Degree Programme in the following areas:</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>The awards are available to citizens of the following countries: Afghanistan, Azerbaijan, Belarus, Cambodia, Democratic Republic of Congo, Egypt, Equatorial Guinea, Eritrea, Ethiopia, Laos, Libya, Myanmar/Burma, Republic of Congo, South Sudan, Sudan, Syria, Tajikistan, Turkmenistan, and Uzbekistan.</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>CSLA grantees will receive financial and administrative support for the following: pre-academic preparation via summer schools;  program-related travel; tuition and mandatory university fees; monthly stipend for room, board, and other living expenses; accident and sickness insurance during the program; funds for educational materials and professional development; attendance at a regional Scholarship Programs conference; accommodations during the application process and the duration of the grant for applicants with disabilities.</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Applicants must meet the following criteria:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>The Civil Society Leadership Awards will not be offered for the academic year 2021–2022. Please check the official website in Spring of 2021 for further updates.</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.opensocietyfoundations.org/grants/civil-society-leadership-awards</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Westminster Vice-Chancellor’s Scholarships for Developing Country Students</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>University of WestminsterBachelors (BS) Degree</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Deadline:31 May 2019 (annual)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>September 2019</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>University of Westminster, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Any full-time Undergraduate Degree Programme offered at the University</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>International students from developing countries</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Full tuition fee waivers, accommodation, living expenses and flights to and from London.</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>You must be an international student from a developing country and hold an offer for a full-time Undergraduate degree at University of Westminster.  The main criteria are: UK First Class Honours degree, financial need and development potential.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Applications for September 2021 scholarships will open at the end of January.</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.westminster.ac.uk/study/fees-and-funding/scholarships/vice-chancellor-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Commonwealth Online Global Health Scholarships at University of Edinburgh</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>University of EdinburghOnline Masters Degree</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Deadline:22 March 2019 (annual)</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sept 2019</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>University of Edinburgh, UK</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Number of Awards:</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Citizens of and resident in one of the following developing Commonwealth countries: Bangladesh, Cameroon, Eswatini, Ghana, Guyana, India, Kenya, Kiribati, Lesotho, Malawi, Mozambique, Nigeria, Pakistan, Papua New Guinea, Rwanda, Samoa, Sierra Leone, Solomon Islands, Sri Lanka, Tanzania, The Gambia, Tuvalu, Uganda, Vanuatu, and Zambia</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>The scholarship includes full tuition fee and resources to enhance student participation, access and research skills. This includes participation in a summer school; contribution towards student costs of internet access &amp; printing (journal articles, etc); and a contribution to MSc project costs (materials, travel, etc).</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>The scholarships will be awarded to a candidate who is accepted for admission on to an eligible programme (see above) and who is a citizen of and resident in one of the following developing Commonwealth countries.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ed.ac.uk/student-funding/postgraduate/e-learning/commglobalhealth</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>President’s PhD Scholarships at Imperial College London</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Eligible PhD Programmes offered at the University</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Deadline:18 Jan/22 Mar 2019 (annual)</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Aug-Nov 2019</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Imperial College London, UK</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Eligible PhD Programmes offered at the University</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Students of any nationality</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Successful candidates will receive the following financial support for up to 3.5 years:</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Application instructions:Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.imperial.ac.uk/study/pg/fees-and-funding/scholarships/presidents-phd-scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Access Opportunity Scholarship at University College London</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>University College London (UCL)Bachelors (BS) Degree</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Deadline:6 July 2018</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>September 2018</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>University College London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Any UCL undergraduate programme</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Asylum seekers, children of asylum seekers, or unaccompanied asylum-seeking children</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>The scholarship will consist of full tuition fees and a living allowance of £11,000 per year for the normal duration of your programme at UCL. Annual renewal of the scholarship is subject to satisfactory academic progress.</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Applicants for the scholarship must be:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ucl.ac.uk/prospective-students/scholarships/undergraduate/access_opportunity_scholarship_folder</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>University of Bradford Academic Excellence Scholarship for International Students</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>University of BradfordBachelors/Masters Degree</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Deadline:4 June 2018 (annual)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>September 2018</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>University of Bradford, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Any full-time Bachelor’s or Master’s Programme offered at University of Bradford</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Non-EU International Students</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>The scholarship is worth half of the tuition fees. There are 10 scholarships available.</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Application instructions:Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.bradford.ac.uk/scholarships/info/half-fee-2018-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Vice-Chancellor’s Excellence Scholarship at London South Bank University</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>London South Bank UniversityPostgraduate Degree</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Deadline:30 June 2017</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>London South Bank University in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Part-time or full-time Postgraduate Degree programmes offered at the University</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>EU and international students</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Fee waiver, not exceeding £8,000 in total. Courses taken across more than one year will be paid on a pro-rata basis, with the total amount not exceeding £8,000.</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>You must be an EU or international student and must hold a conditional or unconditional offer for one of LSBU’s postgraduate programmes to be considered for the scholarship.Minimum selection criteria: A first-class honours undergraduate degree (or international equivalent), plus evidence of key academic, professional and practical achievements. Achievements should be at national or international level and demonstrate local impact.</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.lsbu.ac.uk/courses/postgraduate/fees-and-funding/scholarships/vice-chancellor-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Future Global Leaders Scholarship at Coventry University</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Coventry UniversityBachelor’s Degree</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Deadline:30 June 2017 (annual)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sept 2017</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Coventry University, UK</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>One ofCoventry University’s full-time undergraduate courses</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>International students</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Each award is worth up to £10,000.  Continuing funding over years 2 and 3 is possible but is subject to students passing each year with a minimum average grade of 55% and the attendance legally required to satisfy visa requirements</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>In order to be eligible for this scholarship, applicants must:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.coventry.ac.uk/international-students-hub/new-students/international-scholarships-and-discounts/international-scholarships/apply-for-a-scholarship-/future-global-leaders-scholarship/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>University of Essex Women of the Future Scholarships</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>University of EssexMasters Degree</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Deadline:31 May 2017 (annual)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>University of Essex, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Graduate Diplomas, PG Certificates and PG Diplomas are excluded from this award.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Thirty (30)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Non-UK Female EU or International students. For six of the awards (supported by Santander Universities), preference will be given to applicants from the following countries, Argentina, Brazil, Belgium, Chile, China, Colombia, Italy, France, Germany, Mexico, Peru, Poland, Portugal, Puerto Rico, Qatar, Russia, Singapore, Spain, USA, UAE and Uruguay.</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>The scholarship is worth £20,000 and will cover tuition fees and a stipend.</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>In order to be eligible for this scholarship you must:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.essex.ac.uk/fees-and-funding/masters/scholarships/women-future.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>University of Bradford Global Development Scholarships</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>University of BradfordMasters Degree</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Deadline:15 May 2017 (annual)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>University of Bradford, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Any full-time Master’s Programme (except MBA) offered at University of Bradford</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Students from the following list of countries are invited to apply for these scholarships. However in extreme circumstances applications from students from other countries will be considered by the panel.</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Each scholarship is worth approximately £25,000. The scholarship will cover full tuition fees and accommodation inThe Greenplus £4,200 per annum living costs to be paid in three instalments – October, January and April.</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>To be considered for a place on one of the Master’s courses, you will need to have achieved (or be about to achieve) the minimum level of degree qualification specified for your country (see official website).You will also need to meet the University’sEnglish Language requirements.  You must now already have the required English qualifications to be able to study your chosen course, the University will not be able to consider your application unless you meet these requirements.</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.bradford.ac.uk/fees-and-financial-support/university-scholarships-and-support/info/global-development-scholarship-2017-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Future Leaders of Sustainability Masters Distinction Scholarship at University of Exeter</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>University of ExeterMasters Degree</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Deadline:30 April 2017 (annual)</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Science Policy Research Unit at University of Sussex, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Application instructions:</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Non-EU/UK students</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>The Scholarship comprises an award of £10,000, plus a tuition fee waiver.</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>It is offered to residents from outside the UK/EU and will be awarded to an outstanding applicant who shows potential to be a global sustainability leader.The University is seeking to support individuals with a passion for their chosen field of study and an ambition to use their knowledge, training and skills to effect and ultimately lead progressive change.</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.exeter.ac.uk/postgraduate/money/fundingsearch/awarddetails/?id=2466</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Westminster Disaster Regeneration Scholarship</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>University of WestminsterMasters Degree</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Deadline:4 May 2017 (annual)</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>University of Westminster, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Any full-time Master’s Degree Programme offered at the Universityexcept MBA</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>International students from a disaster struck developing country or region</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Full tuition fee award, accommodation, living expenses and flights to and from London.</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>You must be an international student from a disaster struck developing country or region and hold an offer for a full-time Masters degree at the University. The main criteria are: Equivalent to a UK First Class Honours degree, financial need and development potential.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.westminster.ac.uk/study/prospective-students/fees-and-funding/scholarships/postgraduate-scholarships/disaster-regeneration-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Vice-Chancellor’s International Scholarships at University of the Arts London</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>University of Arts LondonMasters Degree</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Deadline:31 May 2017 (annual)</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>University of the Arts London, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Full-time taught masters course at one of UAL’s six Colleges starting in the academic year of 2017/18. Your course must offer either an M ARCH, MA, MFA, MRes or MSc qualification.Read the list of qualifying courses.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Up to 8</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>International students from low income countries. See thelist of Qualifying Countries (PDF),</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>A scholarship provides a £25,000 award to cover tuition fee charges and make a contribution towards living costs. Scholarship recipients will also be offered International Students House (ISH) accommodation for the duration of their study.</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Criteria 1: You must have applied to study a full-time taught masters course at one of UAL’s six Colleges starting in the academic year of 2017/18. Your course must offer either an M ARCH, MA, MFA, MRes or MSc qualification.Criteria 2: You need to be ordinarily resident in one of the low to middle income economy countries detailed in our ‌List of Qualifying Countries (PDF)‌‌. G20 member countries have been excluded.Acceptance of the scholarship offer is on the condition that you will return to your home country on completion of your postgraduate Masters course.</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.arts.ac.uk/study-at-ual/student-fees–funding/scholarships-search/ual-vice-chancellors-postgraduate-international-scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Westminster Full-Fee Masters Scholarships for International Students</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>University of WestminsterMasters Degree</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Deadline:12 Oct 2018 (annual)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sept 2018/Jan 2019</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>University of Westminster, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Any full-time Master’s Degree Programme offered at the Universityexcept MBA</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Students from any country</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Full tuition fee award only</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>You must hold an offer for a full-time Masters Program at the University of Westminster.  The main scholarship criteria are: Equivalent to a UK First Class Honours degree and financial need.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.westminster.ac.uk/study/prospective-students/fees-and-funding/scholarships/international-postgraduate-scholarships/westminster-full-fee-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Ferguson Scholarships for Africans at SOAS London</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>SOAS University of London</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Deadline:22 Feb 2017</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>SOAS University of London</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>•  Full-time MA African Studies•  Full-time MA International Studies and Diplomacy•  Full-time MA Social Anthropology of Development</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Three (3)</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Nationals of and residents in an African country.</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Each Ferguson Scholarship is valued at £25,000 in total and lasts for one year. The scholarships can be used for fees and the remainder towards maintenance.</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Applicants should:•  Be nationals of and resident in an African country</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>You must submit a complete online application to your programme as soon as possible and then submit an application for the scholarship.  Applicants applying for scholarships must also submit an application for admission well in advance,six weeks BEFORE the scholarship deadline (that is, by 11 January 2017). Scholarship applications must be received no later than 17:00 (UK local time) on22 February 2017.</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.soas.ac.uk/registry/scholarships/ferguson-scholarships.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Bristol MBA International Scholarship</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>The University of the West of England Bristol is offering 50% tuition scholarships to outstanding international students who wish to pursue an MBA Degree at the University.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Deadline:30 Apr/13 Nov 2016</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sept 2016/Jan 2017</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>University of  the West of England Bristol, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Full-timeMaster of Business Administration (MBA)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>There are 4 scholarships available for September 2016 start and 2 scholarships available for January 2017 start.</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Students classed as overseas for fees purposes</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>50% of tuition fees</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Eligible applicants:• have achieved the equivalent of a British 1st or 2:1 in an undergraduate degree</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www1.uwe.ac.uk/bl/bbs/courses/mba/bristolmbascholarships.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Roehampton University-Sacred Heart (RUSH) PhD Studentships</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>University of RoehamptonPhD Degree</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Deadline:5 Dec 2016</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1 Oct 2017</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>University of Roehampton, UK</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>This is only an indicative list; no disciplinary areas are excluded, and specific projects and intentions will be assessed in relation to the broad criterion of making a contribution to the student’s home community.</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Open to all international students but preference will be given to candidates fromlower or middle income countries</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>The scholarship covers the fees at overseas rates, stipend at Research Council UK rates, currently £16,057 (tax-free), and contribution to research project costs.</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>You must meet thestandard requirements for PhD studyat Roehampton. The criteria are:•  Academic excellence – record to date and potential</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.roehampton.ac.uk/Courses/Graduate-School/Funding/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>University of West London International Scholarships</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>University of West LondonBachelors Degree</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Deadline:19 June 2016 (annual)</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sept 2016</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>University of West London, UK</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Any full-time 3-year undergraduate degree course offered at the University</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>International students</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>The International Scholarship Awards comprise one scholarship covering 100% and two scholarships covering 50% of the tuition fees for any full-time 3-year undergraduate degree course studied at the University of West London.</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Application instructions:Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.uwlinternationalscholarship.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>LJMU Roscoe International Scholarship</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Liverpool John Moores UniversityMasters Degree</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Deadline:5 June 2016 (annual)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sept 2016</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Liverpool John Moores University, UK</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Any one year taught Masters programme offered at the University</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>New unternational students, current full-time LJMU international students hoping to progress onto postgraduate study at the University, LJMU international alumni</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Full tuition fee waiver worth up to £12,360. Before applying for a scholarship you need to consider that these scholarships only offer full and partial discount on tuition fees. You will still need to self-finance the balance of your tuition fee (if applicable), your accommodation, daily living and travel costs while you are in the UK.</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>In order to be considered for this scholarship you must:Application instructions:</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.ljmu.ac.uk/study/international-students/financing-your-study/scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Cavendish Research PhD Scholarships at University of Westminster</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>University of WestminsterPhD Degree</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Deadline:3 May 2016  (annual)</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>September 2016</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>University of Westminster, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Full-time MPhil/PhD degree at the University’s Faculty of Science and Technology.</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Students from developing countries</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Awards range from half fee award to full fee award.</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>You must be a student from a developing country and hold an offer for a full-time MPhil/PhD degree at the University’s Faculty of Science and Technology.The scholarship criteria are: Equivalent to a UK First Class Honours degree, financial need and development potential.</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.westminster.ac.uk/study/prospective-students/fees-and-funding/scholarships/international-postgraduate-scholarships/cavendish-research-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Professor Arthur Li Scholarship at the University of the West of England</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>University of the West of EnglandMasters Degree</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Deadline:31 Mar 2016 (annual)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>September 2016</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>University of the West of England, UK</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Any Postgraduate Programme offered at the UniversityexceptMBA,BPTC,LPC,GDL,MScRobotics,PhD‘s and continuing professional development courses</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1 for September 2016 start</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Students classed as overseas for fees purposesfrom Commonwealth countries</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Full tuition fees for one academic year</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>To be eligible for the scholarship:• Have achieved the equivalent of a British 1st in an undergraduate degree</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www1.uwe.ac.uk/students/feesandfunding/fundingandscholarships/internationalstudentfunding/uweinternationalscholarships/postgraduatescholarships.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sustainability Masters Scholarships at University of Leeds</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>University of LeedsMasters Degree</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Deadline:1 Apr/1 May 2017</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>September 2017</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>School of Earth and Environment, University of Leeds in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>• MSc Climate Change and Environmental Policy</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Two scholarships for international students and a number of scholarships for UK/EU students are available.</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>International and UK/EU Students</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>The scholarships will fund the full tuition fees (worth up to £19,000 for international students and up to £8,000 for UK/EU Students).</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>You must first hold an offer (conditional or unconditional) of an academic place on the eligible School of Earth and Environment Masters programmes for the academic year commencing September 2016, and be designated by the University as being of international fee status or of UK/EU status when applicable. All applications will be assessed on a competitive basis. A scholarship award cannot be deferred and will lapse if not accepted in September 2016.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Please submit a completed School of Earth and Environment Scholarship application to soee-scholarships[at]leeds.ac.uk by1 April 2017(international students) or1 May 2017(UK/EU students).</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.see.leeds.ac.uk/admissions-and-study/masters-degrees/admissions-and-study/scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Masters in Engineering Geology Scholarships at University of Leeds</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>University of LeedsDegree</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Deadline:1 May 2016 (Annual)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>September 2016</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>School of Earth and Environment, University of Leeds in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Masters in Engineering Geology</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>International Students</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>The scholarships are worth up to £19,000,</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>You must first hold an offer (conditional or unconditional) of an academic place on the Masters in Engineering Geology for the academic year commencing September 2016, and be designated by the University as being of international fee status. All applications will be assessed on a competitive basis. A scholarship award cannot be deferred and will lapse if not accepted in September 2016.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Please submit a completed School of Earth and Environment Scholarship application to soee-scholarships[at]leeds.ac.uk by1 May 2016.</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.see.leeds.ac.uk/admissions-and-study/masters-degrees/admissions-and-study/scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>MRes in Climate and Atmospheric Science Scholarships at University of Leeds</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>University of LeedsMasters Degree</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Deadline:1 May/1 June 2016</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>September 2016</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>School of Earth and Environment, University of Leeds in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Full-time MRes Programme in Climate and Atmospheric Science offered at the University</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Two scholarships for international students and one scholarship for a UK/EU student are available.</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>International and UK/EU Students</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>The scholarship is worth up to £19,000 for international students or £6,500 for UK/EU Students</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>You must first hold an offer (conditional or unconditional) of an academic place on the MRes in Climate and Atmospheric Science for the academic year commencing September 2016, and be designated by the University as being of international fee status or UK/EU fee status when applicable. All applications will be assessed on a competitive basis. A scholarship award cannot be deferred and will lapse if not accepted in September 2016.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Please submit a completed School of Earth and Environment Scholarship application to soee-scholarships[at]leeds.ac.uk by1 May 2016(international students) or1 June 2016(UK/EU students).</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.see.leeds.ac.uk/admissions-and-study/masters-degrees/admissions-and-study/scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Swansea University International Excellence and Merit Scholarships</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Swansea UniversityBachelors/Masters Degree</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Deadline:6 July 2016</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Sept 2016</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Swansea University, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Full time undergraduate and postgraduate taught courses in any subject offered at the University</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>America, Bahrain, Botswana, Brazil, Canada, Chile, China, Colombia, Cyprus, Ecuador, Egypt, Ghana, Greece, Hong Kong, India, Indonesia, Iran, Iraq, Italy, Japan, Jordan, Kenya, Kuwait, Lebanon, Malaysia, Mexico, Nigeria, Norway, Oman, Palestine, Peru, Poland, Qatar, Saudi Arabia, South Africa, South Korea, Spain, Syria, Taiwan, Thailand, Turkey, United Arab Emirates, Zambia, Zimbabwe</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>International Excellence Scholarships</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>You must hold an offer to study at Swansea University.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.swansea.ac.uk/international/students/fees-and-funding/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Lalji PfAL Scholarship for Sub-Saharan Africans at London School of Economics</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Deadline:4 March 2016 (annual)</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sept 2016</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Department of International Development, London School of Economics and Political Science, UK</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Confirmed eligible programmes:</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Students from across the whole of sub-Saharan Africa. The following applicants are particularly encouraged to apply:</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>A full scholarship will cover fees and living costs, but the value for each student will be assessed according to financial need.  All Lalji PfAL Scholarship recipients will benefit from an additional study seminar series plus automatic enrolment into thePfAL@LSE leadership programmewhich takes place throughout the year.</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>In order to be considered for one of these awards, you must have a bachelor’s degree and meet theminimum entry requirementsfor LSE’s graduate programmes.  You can find details specific to your country/regionhere. (Click on a country/region, then choose the country where you took your degree qualification. Click on the flag to access specific country requirements).Application instructions:</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>If you meet the entry requirements, please complete a PfAL Phase 1 application form.  If your initial application is approved then you are eligible to apply for one of the selected MSc programmes (Phase 2) and complete a financial assessment form (Phase 3).   Only Phase 1-approved candidates holding an offer of a place on one of the approved MSc programmes will be assessed for an award. TheFINAL DEADLINEfor Phase 1 – Pre-Application is23:59 GMT on Friday, 4 March 2016.</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.lse.ac.uk/internationalDevelopment/programmeForAfricanLeadership/howtoapply.aspx?utm_source=Newsletter%20to%20universities&amp;utm_medium=email&amp;utm_campaign=Recruitment%202015%2F16%20-%20universities</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>UWE Global Student Scholarships for International Students</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>University of West EnglandMasters Degree</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Deadline:31 Mar 2016 (annual)</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>September 2016</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>University of the West of England, UK</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Eligible Postgraduate Programmes offered at the University.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>International students</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Full tuition fee</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>To be eligible for the scholarship:• Have achieved the equivalent of a British 1st in an undergraduate degree</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www1.uwe.ac.uk/students/feesandfunding/fundingandscholarships/internationalstudentfunding/uweinternationalscholarships/postgraduatescholarships.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Cultures of Resistance Scholarships at SOAS University London</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SOAS University LondonMasters Degree</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Deadline:24 Feb 2016 (annual)</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>September 2016</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>SOAS University London, UK</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>The following full-time programmes are eligible:</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Priority will be given to students resident in:Afghanistan, Burma/Myanmar, the Democratic Republic of Congo (DRC), Iraq, Kashmir, Kurdistan, the Palestinian Territories (West Bank and Gaza), Sierra Leone, Somalia, South Sudan, Sudan, Syria, Tibet, Western Sahara, Yemen, West Papua and Papua</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Each scholarship is valued at £25,500 in total. Fees will be deducted from this amount and the remainder will be used toward maintenance. In addition, each scholar will benefit from free accommodation at International Student House (ISH) and some food vouchers to be spent in the ISH restaurant.</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>•  Candidates must hold (or be expected to obtain) a good honours degree, preferably first class, from a UK institution or overseas equivalent.•  Candidates shoulddescribe in their personal statement of their admission application:</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.soas.ac.uk/registry/scholarships/the-cultures-of-resistance-scholarships.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Edinburgh Global Health Academy Master’s Scholarship</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>University of EdinburghMasters Degree</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Deadline:29 May 2015 (annual)</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>September 2015</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>University of Edinburgh, UK</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Number of Scholarships:</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>One (1)</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Nationals of and resident in one of the following countries: Afghanistan, Angola, Bangladesh, Benin, Bhutan, Burkina Faso, Burundi,Cambodia, Cape Verde, Central African Republic, Chad, Comoros, Democratic Republic of the Congo, Djibouti, Equatorial Guinea, Eritrea, Ethiopia, Gambia, Guinea, Guinea Bissau, Haiti, Kenya, Kribati, Lao People’s Democratic Republic, Lesotho, Liberia, Madagascar, Malawi, Maldives, Mali, Mauritania, Mozambique, Myanmar, Nepal, Niger, Rwanda, Samoa, Sao Tome and Principe, Senegal, Sierra Leone, Solomon Islands, Somalia, South Sudan, Sudan, Timor-Leste, Togo, Tuvalu, Uganda, United Republic of Tanzania, Vanuatu, Yemen, Zambia.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>The scholarship will cover the UK/EU “home” rate of tuition fee of up to £8,100.</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>The scholarship will be awarded to a student who is accepted for admission onto an eligible Global Health Academy programme at the University of Edinburgh commencing in 2015-2016.The scholarship will be awarded on the basis of academic merit. Candidates must have, or expect to obtain, a UK first class or 2:1 Honours degree at undergraduate level or the international equivalent.</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Applications are closed.</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ed.ac.uk/student-funding/postgraduate/international/global/health</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Roehampton University Sacred Heart Scholarships for International Students</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Roehampton UniversityPostgraduate Degree</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Deadline:8 May 2015</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>September 2015</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Roehampton University, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Postgraduate degree in any discipline offered at the University</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Academically excellent students from both within and outside the UK (international students)</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>The Scholarship will usually consist of the tuition fee and free or subsidised accommodation on the University of Roehampton campus.</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Students for postgraduate study or research from within and outside the UK who:•  are intending to pursue postgraduate studies at the University of Roehampton•  have an excellent academic record or equivalent life experience•  have a commitment to contributing to the wider community•  may otherwise be unable to pursue their studies•  are likely to make a contribution to international understanding and intend to contribute to their own communities following graduation</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Completed applications forms along with 2 reference letters should be sent by email before8 May 2015. Applications for the scholarship should include a statement indicating why the candidate wishes to pursue their studies at Roehampton, and indicating how the candidate intends to promote international understanding and contribute to their communities following graduation.</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.roehampton.ac.uk/Finance/Sacred-Heart-Scholarship-(RUSH)/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Ruth First Scholarships for Southern Africans at Durham University</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Durham UniversityMasters Degree</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Deadline:1 March 2015 (annual)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sept 2015</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>University of Durham, UK</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Any Taught Masters Degree Programme offered at the University</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Nationals of one of the following countries:  Angola, Botswana, Lesotho, Malawi, Mozambique, Namibia, Republic of South Africa, Swaziland, Zambia, and Zimbabwe</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>The scholarship covers the full payment of tuition fees, stipend for living expenses (12 months), one return air ticket to Durham City from home country, fully funded accommodation and meals at St Chad’s College, settlement allowance, and a contribution to the cost of sending belongings home before departure</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Applicants should:• hold a relevant honours degree of sufficient standard to be admitted to your chosen Master’s course (further conditions apply to the MBA programme), and</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Do not submit a formal application to Durham University in the hope of winning the Ruth First Scholarship. Only the  successful candidate will complete the University application process once the Trust has made its selection and consulted the Department concerned. Completed application forms and supporting document must be sent to Ruth First Education Trust by31 March 2015.</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:https://www.dur.ac.uk/scholarships/postgraduate/university/ruthfirst/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Edinburgh Global Masters Scholarships</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>University of EdinburghMasters Degree</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Deadline:1 Apr 2016 (annual)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>September 2016</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>University of Edinburgh, UK</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Applicants should already have been offered a place at the University of Edinburgh and should have firmly accepted that offer or be intending to do so. Preference will be given to candidates who have not already had the opportunity to study in Scotland.</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Non-EU international students</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Each scholarship will have a value of £3,000 and will be tenable for one academic year. The scholarship will be deducted from your tuition fees.</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>The scholarships will be awarded to students who are nationals of countries outwith the EU who are accepted for admission on a full-time basis for a postgraduate Master’s programme of study at the University of Edinburgh.Applicants should already have been offered a place at the University of Edinburgh and should have firmly accepted that offer or be intending to do so. Preference will be given to candidates who have not already had the opportunity to study in Scotland.</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ed.ac.uk/schools-departments/student-funding/postgraduate/international/global/masters</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Eldred-Waverley Scholarship at Linacre College, Oxford</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Oxford UniversityMasters Degrees</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Deadline:23 Jan 2015 (annual)</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>October 2015</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Linacre College,University of Oxford in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>MSc African Studies</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Students who areordinarilyresident in sub-Saharan Africa</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>100% of University and college fees, a grant for living costs (at least £10,397) and a return flight to/from the UK</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>There is no separate application process for this scholarship: in order to be considered, you must submit your application for graduate study by23 January 2015.</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ox.ac.uk/admissions/graduate/fees-and-funding/graduate-scholarships/university-wide-scholarships/eldred-waverley-scholarship-linacre-college</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Governance for Development in Africa Scholarships at SOAS University of London</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SOAS University of London</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Deadline:30 April 2015</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>September 2015</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>SOAS University of London</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>MSc Programme in the field of Governance for Development in Africa offered at the University</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Three (3)</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Students  domiciled (or permanent residents) in an African country.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>The scholarship provides for fees, for accommodation and living cost for the year.</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Applicants must be domiciled (or permanent residents) in an African country. Preference will be given to scholarship candidates living in Sub‐Saharan Africa.  MSc (Full‐time) undertaken by scholarship applicants must directly address or be applicable to the issue of Governance in AfricaApplication instructions:</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>In order to be considered for funding, applicants must first secure a place for the MSc by applying directly to theSOAS admissions office.  Once the place is secured, the applicants can apply for the scholarship. The deadline for applications is30 April 2015.</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.soas.ac.uk/gdai/gdai—ma-scholarships.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Oppenheimer Fund Scholarships at University of Oxford</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Oxford UniversityMasters/PhD Degrees</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Deadline:8 Jan/22 Jan 2016 (annual)</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>October 2016</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>University of Oxford in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>All full-time or part-time graduate degrees offered at the University</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Students whohavepreviously studied at a South African university.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>For students on full-time courses, the scholarship provides a grant for living costs of at least £14,057. Students on part-time courses will receive a study support grant to help cover their non-fee costs.</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ox.ac.uk/admissions/graduate/fees-and-funding/graduate-scholarships/university-wide-scholarships/oppenheimer-fund-scholarships</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Edinburgh Global Development Academy Scholarships</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>University of EdinburghMasters Degree</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Deadline:10 April 2015 (annual)</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>September 2015</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>University of Edinburgh, UK</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Eligible applicants should complete an online scholarship application. The closing date for applications for this scholarship is10 April 2015.</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>There will be 1 Master’s scholarship for students from less developed countries and 2 Master’s scholarships for UK/EU students.</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>The scholarships are open to UK/EU students and nationals of the least developed nations:  Afghanistan, Angola, Bangladesh, Benin, Bhutan, Burkina Faso, Burundi, Cambodia, Central African Republic, Chad, Comoros, Democratic Republic of the Congo, Djibouti, Equatorial Guinea, Eritrea, Ethiopia, Gambia, Guinea, Guinea Bissau, Haiti, Kribati, Lao People’s Democratic Republic, Lesotho, Liberia, Madagascar, Malawi, Mali, Mauritania, Mozambique, Myanmar, Nepal, Niger, Rwanda, Samoa, Sao Tome and Principe, Senegal, Sierra Leone, Solomon Islands, Somalia, South Sudan, Sudan, Timor-Leste, Togo, Tuvalu, Uganda, United Republic of Tanzania,Vanuatu, Yemen, and Zambia</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>The scholarship will cover  the overseas rate of tuition fee for students from less developed countries and the “home” rate of tuition fee for UK/EU students.</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>The scholarships will be awarded to students who are accepted for admission onto an eligible Global Development Academy programme at the University of Edinburgh. Applicants must be both nationals of and resident of eligible countries (see list above).The scholarship will be awarded on the basis of academic merit. Candidates must have, or expect to obtain, a UK first class or 2:1 Honours degree at undergraduate level or the international equivalent.</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ed.ac.uk/schools-departments/student-funding/postgraduate/international/global/development</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Nottingham University Business School Scholarships</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>University of Nottingham Business School, UK</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Deadline:31 July 2014</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>London, UK</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sept 2014</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>University of Nottingham Business School, UK</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>EligibleMasters Degree Programmesoffered by the Business School</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>EU and International Students</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Scholarships will vary between 25% – 75% of the total tuition fees.</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Awarded based on academic merit.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>All applicants for one of the full-time Masters programmes will automatically be considered for a scholarship at the point of offer, there is no separate application process.  The deadline for applications coincides with the deadline for admissions.  The closing date for admissions is normally thelast working day of July each year.</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.nottingham.ac.uk/business/ma/scholarships.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Nottingham Trent University Science Scholarships for Non-EU Students</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Nottingham Trent UniversityMasters Degree</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Deadline:21 Oct/25 Nov/9 Dec 2015</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>January 2016</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>School of Science and Technology, Nottingham Trent University in United Kingdom</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Biosciences – MRes and MSc BioscienceChemistry – MRes and MSc Chemistry</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>1 for Biosciences, 1 for Chemistry</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Non-EU students</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Half of the tuition fee</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>You must be classed as ‘overseas’ for fee purposes and must be holding an NTU offer for an eligible course under the School of Science and Technology.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>To apply for the scholarship, you must submit the scholarship application form by one of the three deadlines:21 October, 25 November, or 9 December 2015.</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ntu.ac.uk/sat/courses/fees_funding/171982.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Swansea University International Excellence Scholarships</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>University of WestminsterBachelors/Masters Degree</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Deadline:2 June 2014</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>September 2014</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Swansea University</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>40 for postgraduate study and 18 for undergraduate study</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>International students</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>To be eligible for the scholarship, you must be classed as an overseas student for fee purpose.  You must also fulfill the entry requirements of your chosen course and to be enrolling on a postgraduate or undergraduate course at Swansea University for the first time in September 2014 OR have already submitted your application and hold an offer to study at Swansea University in September 2014.Please see Swansea University website for more course entry requirements.</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.swansea.ac.uk/international/students/fees-and-funding/scholarships/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Nottingham University Business School PhD Scholarships</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Nottingham UniversityPhD Degree</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Deadline:11 April 2014 (annual)</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>October 2014</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Nottingham Business School, UK</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>UK , EU, and International students</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Scholarship applications will be evaluated on the basis of former qualifications, academic background, references and research proposal.</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.nottingham.ac.uk/business/phd/Scholarships.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Loughborough University Graduate School Development Trust Africa Scholarships</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Loughborough UniversityMasters (MS) Degree</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Deadline:30 April 2014 (annual)</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>September 2014</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Loughborough University, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Any full-time postgraduate taught programme offered at the University</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Students who are currently domiciled (permanently living) in Africa.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>The scholarships will cover 100% of the course fees for your chosen postgraduate taught course for one year</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Students must be in possession of an offer (conditional or unconditional) of a place on a postgraduate taught course in order to apply for the scholarship. The selection panel will use the following eligibility criteria when assessing applications:•  Currently domiciled (permanently living) in Africa• Evidence of exceptional academic achievement (normally a 1st Class Honours Degree)• Commitment to return to their home country on completion of postgraduate programme• Evidence of the ability and commitment to making a significant contribution to their home country on their return• Full understanding of the costs involved in coming to study and live in the UK•  Evidence of strong motivation and initiative to secure funds to cover the remainder of the costs involved</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.lboro.ac.uk/study/finance/international/informationfor/africa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Westminster African Education Scholarship</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>University of WestminsterMasters (MS) Degree</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Deadline:1 May 2015 (annual)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>September 2014</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>University of Westminster, United Kingdom</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Number of Awards:</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Citizens of Sub-Saharan Africa</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Full tuition fee award, accommodation at International Students House, living expenses and flights to and from London.</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>You must be from sub-Saharan Africa and hold an offer for a full-time Masters degree at the University.The main criteria are: First Class Honours degree, financial need and development potential.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Applications are currently closed.</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.westminster.ac.uk/study/prospective-students/fees-and-funding/scholarships/postgraduate-scholarships/african-education-scholarship</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>The University of Edinburgh Southern African Scholarships</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>University of EdinburghMasters Degree</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Deadline:25 April 2014 (annual)</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>September 2014</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>University of Edinburgh, UK</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>It is important to visit the official website (link found below) for detailed information on how to apply for this scholarship.</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>One (1)</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Students from the following South African countries: Angola, Botswana, the Democratic Republic of Congo, Lesotho, Malawi, Mozambique, Namibia, South Africa, Swaziland, United Republic of Tanzania, Zambia and Zimbabwe</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>The scholarship covers the overseas rate of tuition fee and University accommodation and is tenable for one academic year.</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Applicants should already have been offered a place at the University of Edinburgh and should have firmly accepted that offer or be intending to do so.  The scholarship will be awarded on the basis of academic merit. Candidates must have, or expect to obtain, the international equivalent of a UK first class or 2:1 Honours degree at undergraduate level.Application instructions:</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>2014-2015 Applications are now closed.</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Official Scholarship Website:http://www.ed.ac.uk/schools-departments/student-funding/postgraduate/international/region/southern-africa</t>
         </is>
       </c>
     </row>
